--- a/songs.xlsx
+++ b/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex78\Documents\Dexter\Projects\Communication-Style-Analysis-Using-NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2DF585-4E70-4D73-A843-3B7D17E4D47D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F470041C-7ED8-4F9F-8B1A-49D370E139D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Artist</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>"Come On Over"</t>
+  </si>
+  <si>
+    <t>"The Beatles (The White Album)"</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -844,6 +847,641 @@
   <si>
     <t xml:space="preserve">
 _x000D_
+On a dark desert highway, cool wind in my hair
+Warm smell of colitas, rising up through the air
+Up ahead in the distance, I saw a shimmering light
+My head grew heavy and my sight grew dim
+I had to stop for the night
+There she stood in the doorway
+I heard the mission bell
+And I was thinking to myself
+"This could be Heaven or this could be Hell"
+Then she lit up a candle and she showed me the way
+There were voices down the corridor
+I thought I heard them say
+Welcome to the Hotel California
+Such a lovely place (Such a lovely place)
+Such a lovely face
+Plenty of room at the Hotel California
+Any time of year (Any time of year)
+You can find it here
+Her mind is Tiffany-twisted, she got the Mercedes bends
+She got a lot of pretty, pretty boys she calls friends
+How they dance in the courtyard, sweet summer sweat
+Some dance to remember, some dance to forget
+So I called up the Captain
+"Please bring me my wine."
+He said, "We haven't had that spirit here since nineteen sixty nine."
+And still those voices are calling from far away
+Wake you up in the middle of the night
+Just to hear them say
+Welcome to the Hotel California
+Such a lovely place (Such a lovely place)
+Such a lovely face
+They livin' it up at the Hotel California
+What a nice surprise (what a nice surprise)
+Bring your alibis
+Mirrors on the ceiling
+The pink champagne on ice
+And she said "We are all just prisoners here, of our own device"
+And in the master's chambers
+They gathered for the feast
+They stab it with their steely knives
+But they just can't kill the beast
+Last thing I remember
+I was running for the door
+I had to find the passage back to the place I was before
+"Relax," said the night man
+"We are programmed to receive
+You can check-out any time you like
+But you can never leave!"
+_x000D_
+There's talk on the street
+It sounds so familiar
+Great expectations, everybody's watching you
+People you meet
+They all seem to know you
+Even your old friends treat you like you're something new
+Johnny come lately, the new kid in town
+Everybody loves you, so don't let them down
+You look in her eyes
+The music begins to play
+Hopeless romantics, here we go again
+But after awhile
+You're lookin' the other way
+It's those restless hearts that never mend
+Johnny come lately, the new kid in town
+Will she still love you when you're not around?
+There's so many things you should have told her
+But night after night you're willing to hold her
+Just hold her
+Tears on your shoulder
+There's talk on the street
+It's there to remind you
+It doesn't really matter which side you're on
+You're walking away
+And they're talking behind you
+They will never forget you 'til somebody new comes along
+Where you've been lately? There's a new kid in town
+Everybody loves him
+Don't they?
+Now he's holding her, and you're still around
+Oh, my, my
+There's a new kid in town
+Just another new kid in town
+Everybody's talking 'bout the new kid in town
+Everybody's walking like the new kid in town
+There's a new kid in town
+I don't wanna hear it
+There's a new kid in town
+I don't wanna hear it
+There's a new kid in town
+There's a new kid in town
+There's a new kid in town
+(Everybody's talking)
+There's a new kid in town
+(People started walking)
+There's a new kid in town
+There's a new kid in town
+_x000D_
+He was a hard-headed man,
+He was brutally handsome,
+And she was terminally pretty
+She held him up,
+And he held her for ransom
+In the heart of the cold, cold city
+He had nasty reputation as a cruel dude
+They said he was ruthless, said he was crude
+They had one thing in common, they were good in bed
+She'd say, "Faster, faster. The lights are turnin' red."
+Life in the fast lane
+Surely make you lose your mind
+Life in the fast lane
+Are you with me so far?
+Eager for action,
+Hot for the game
+The coming attraction,
+The drop of a name
+They knew all the right people,
+They took all the right pills
+They threw outrageous parties,
+They paid heavenly bills
+There were lines on the mirror,
+Lines on her face
+She pretended not to notice,
+She was caught up in the race
+Out every evening,
+Until it was light
+He was too tired to make it,
+She was too tired to fight about it
+Life in the fast lane
+Surely make you lose your mind
+Life in the fast lane
+Life in the fast lane,
+Everything all the time
+Life in the fast lane
+Blowin' and burnin',
+Blinded by thirst
+They didn't see the stop sign,
+Took a turn for the worst
+She said, "Listen, baby. You can hear the engine ring.
+We've been up and down this highway; haven't seen a goddamn thing."
+He said, "Call the doctor. I think I'm gonna crash."
+"The doctor say he's comin', but you gotta pay him cash."
+They went rushin' down that freeway,
+Messed around and got lost
+They didn't care they were just dyin' to get off and it was...
+Life in the fast lane
+Surely make you lose your mind
+Life in the fast lane
+Life in the fast lane,
+Everything all the time
+Life in the fast lane,
+Life in the fast lane
+Life in the fast lane
+_x000D_
+Well, baby, there you stand
+With your little head down in your hand
+Oh, my God, you can't believe
+It's happening again
+Your baby's gone,
+And you're all alone
+And it looks like the end.
+And you're back out on the street.
+And you're tryin' to remember.
+How do you start it over?
+You don't know if you can.
+You don't care much
+For a stranger's touch,
+But you can't hold your man.
+You never thought you'd be alone
+This far down the line
+And I know what's been on your mind
+You're afraid it's all been wasted time
+The autumn leaves have got you thinking
+About the first time that you fell
+You didn't love the boy too much, no, no,
+You just loved the boy too well, well, well.
+So you live from day to day,
+And you dream about tomorrow
+And the hours go by like minutes
+And the shadows come to stay
+So you take a little something
+To make them go away
+I could have done so many things, baby
+If I could only stop my mind
+From wonderin' what I left behind
+And from worrying 'bout this wasted time
+Another love has come and gone
+And the years keep rushing on
+I remember what you told me
+Before you went out on your own,
+"Sometimes to keep it together,
+We got to leave it alone."
+So you can get on with your search, baby,
+And I can get on with mine
+And maybe someday we will find
+That it wasn't really wasted time
+_x000D_
+What kind of love have you got?
+You should be home, but you're not
+A room full of noise
+And dangerous boys
+Still makes you thirsty and hot
+I heard about you and that man
+There's just one thing I don't understand
+You say he's a liar
+And he put out your fire
+How come you still got his gun in your hand?
+Victim of love, I see your broken heart
+You got your stories to tell
+Victim of love, it's such an easy part
+And you know how to play it so well
+Some people never come clean
+I think you know what I mean
+You're walkin' the wire
+Pain and desire
+Looking for love in between
+Tell me your secrets, I'll tell you mine
+This ain't no time to be cool
+And tell all your girlfriends,
+Your been-around-the-world friends
+That talk is for losers and fools
+Victim of love, I see your broken heart
+I could be wrong, but I'm not, no, I'm not
+Victim of love, we're not so far apart
+Show me, what kind of love have you got?
+Victim of love, I see your broken heart
+I could be wrong, but I'm not
+Victim of love, we're not so far apart
+What kind of love have you got?
+Victim of love, you're just a victim of love
+I could be wrong, but I'm not, no, I'm not
+Victim of love, now you're a victim of love
+What kind of love have you got?
+What kind of love have you got?
+What kind of love have you got?
+_x000D_
+Hi there. How are 'ya?
+It's been a long time
+Seems like we've come a long way
+My, but we learn so slow
+And heroes, they come and they go
+And leave us behind
+As if we're supposed to know why
+Why do we give up our hearts to the past?
+And why must we grow up so fast?
+And all you wishing-well fools with your fortunes
+Someone should send you a rose
+With love from a friend,
+It's nice to hear from you again
+And the storybook comes to a close
+Gone are the ribbons and bows
+Things to remember places to go
+Pretty maids all in a row
+_x000D_
+When you're out there on your own
+Where your memories can find you
+Like a circle goes around
+You were lost until you found out
+What it all comes down to
+One by one
+The lonely feelings come
+Day by day, they slowly fade away
+Oh, the look was in her eyes
+You never know what might be found there
+She was dancing right in time
+And the moves she made so fine
+Like the music that surrounds her
+Should I stay or go?
+I really want to know
+Would I lose or win
+If I try and love again?
+Gonna try and love again
+I'm gonna try and love again
+Gonna try and love
+Right or wrong, what's done is done
+It's only moments that you borrow
+But the thoughts will linger on
+Of the lady and her song
+When the sun comes up tomorrow
+Well, it might take years to see
+Through all these tears
+Don't let go
+When you find it you will know
+Oh, gonna try and love again
+Oh, gonna try and love again
+Oh, gonna try and love again
+Sometimes lose, sometimes win,
+Sometimes you need a friend
+Gonna try, gonna try
+Gonna try, gonna try [etc]
+_x000D_
+She came from Providence
+One in Rhode Island
+Where the old world shadows hang
+Heavy in the air
+She packed her hopes and dreams
+Like a refugee
+Just as her father came
+Across the sea
+She heard about a place
+People were smilin'
+They spoke about the red man's way
+How they loved the land
+And they came from everywhere
+To the Great Divide
+Seeking a place to stand
+Or a place to hide
+Down in the crowded bars
+Out for a good time
+Can't wait to tell you all
+What it's like up there
+They called it paradise
+I don't know why
+Somebody laid the mountains low
+While the town got high
+Then the chilly winds blew down
+Across the desert
+Through the canyons of the coast
+To the Malibu
+Where the pretty people play
+Hungry for power
+To light their neon way
+Give them things to do
+Some rich men came and raped the land
+Nobody caught 'em
+Put up a bunch of ugly boxes
+And Jesus people bought 'em
+They called it paradise
+The place to be
+They watched the hazy sun
+Sinking in the sea
+You can leave it all behind and sail to Lahaina
+Just like the missionaries did so many years ago
+They even brought a neon sign "Jesus is coming"
+Brought the white man's burden down
+Brought the white man's reign
+Who will provide the grand design?
+What is yours and what is mine?
+'Cause there is no more new frontier
+We have got to make it here
+We satisfy our endless needs
+And justify our bloody deeds
+In the name of destiny
+And in the name of God
+And you can see them there
+On Sunday morning
+They stand up and sing about
+What it's like up there
+They call it paradise
+I don't know why
+You call someplace paradise
+Kiss it goodbye
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+_x000D_
+Hey, hey mama, said the way you move
+Gonna make you sweat, gonna make you groove
+Uh uh child, way you shake that thing
+Gonna make you burn, gonna make you sting
+Hey, hey, baby, when you walk that way
+Watch your honey drip, can't keep away
+Ah, yeah, ah, yeah, ah, ah, ah
+Ah, yeah, ah, yeah, ah, ah, ah
+I gotta roll, can't stand still
+Got a flamin' heart, can't get my fill
+Eyes that shine, burnin' red
+Dreams of you all through my head
+Ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah
+Hey hey, baby, oh, baby, pretty baby
+Darlin' can't you do me now?
+Hey, baby, oh, baby, pretty baby
+Move me while you do me now
+Didn't take too long 'fore I found out
+What people mean by down and out
+Spent my money, took my car
+Started tellin' her friends she gonna be a star
+I don't know, but I been told
+A big legged woman ain't got no soul
+Oh, yeah, oh, yeah, ah, ah, ah
+Oh, yeah, oh, yeah, ah, ah, yeah
+All I ask for, all I pray
+Steady-loaded woman gonna come my way
+Need a woman, gonna hold my hand
+Will tell me no lies, make me a happy man
+Ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah
+La-da ah e ah
+Yes I will. And, yes, I really, really do, baby, baby, baby
+I can really do you, huh? Ooh, wow, you do it, baby
+Push it, baby, push it, baby, push it, baby, push it, baby
+Push it, baby, push it, babe, babe
+Ooh, ooh, aah ooh. Ooh. I'd really like to do it now
+I'd really like to do it now
+_x000D_
+It's been a long time since I rock-and-rolled.
+It's been a long time since I did the Stroll.
+Ooh, let me get it back, let me get it back, let me get it back, baby, where I come from.
+It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
+Yes, it has.
+It's been a long time since the book of love.
+I can't count the tears of a life with no love.
+Carry me back, carry me back, carry me back, baby, where I come from.
+It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
+Seems so long since we walked in the moonlight,
+Making vows that just can't work right.
+Open your arms, open your arms, open your arms, baby, let my love come running in.
+It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
+It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
+_x000D_
+The Queen of Light took her bow,
+And then she turned to go,
+The Prince of Peace embraced the gloom,
+And walked the night alone.
+Oh, dance in the dark of night,
+Sing to the morning light.
+The dark Lord rides in force tonight,
+And time will tell us all.
+Oh, throw down your plow and hoe,
+Rest not to lock your homes.
+Side by side we wait the might
+Of the darkest of them all.
+I hear the horses' thunder down in the valley below,
+I'm waiting for the angels of Avalon, waiting for the eastern glow.
+The apples of the valley hold the seeds of happiness,
+The ground is rich from tender care,
+Repay, do not forget, no, no.
+Dance in the dark of night,
+Sing to the morning light.
+The apples turn to brown and black,
+The tyrant's face is red.
+Oh war is the common cry,
+Pick up your swords and fly.
+The sky is filled with good and bad
+That mortals never know.
+Oh, well, the night is long, the beads of time pass slow,
+Tired eyes on the sunrise, waiting for the eastern glow.
+The pain of war cannot exceed the woe of aftermath,
+The drums will shake the castle wall,
+The Ringwraiths ride in black, ride on.
+Sing as you raise your bow,
+(Ride on)
+Shoot straighter than before.
+No comfort has the fire at night
+That lights the face so cold.
+Oh dance in the dark of night,
+Sing to the morning light.
+The magic runes are writ in gold to bring the balance back.
+Bring it back.
+At last the sun is shining,
+The clouds of blue roll by,
+With flames from the dragon of darkness,
+The sunlight blinds his eyes.
+Bring it back, bring it back, bring it back, bring it back,
+Bring it back, bring it back, bring it back, bring it back
+Oh now oh now oh now oh, oh now oh now oh now
+Bring it back, bring it back, bring it back, bring it back
+Oh now oh now oh now oh, oh now oh now oh now
+Bring it bring it bring it bring it bring it
+_x000D_
+There's a lady who's sure all that glitters is gold
+And she's buying a stairway to heaven.
+When she gets there she knows, if the stores are all closed
+With a word she can get what she came for.
+Ooh, ooh, and she's buying a stairway to heaven.
+There's a sign on the wall but she wants to be sure
+'Cause you know sometimes words have two meanings.
+In a tree by the brook, there's a songbird who sings,
+Sometimes all of our thoughts are misgiven.
+Ooh, it makes me wonder,
+Ooh, it makes me wonder.
+There's a feeling I get when I look to the west,
+And my spirit is crying for leaving.
+In my thoughts I have seen rings of smoke through the trees,
+And the voices of those who stand looking.
+Ooh, it makes me wonder,
+Ooh, it really makes me wonder.
+And it's whispered that soon, if we all call the tune,
+Then the piper will lead us to reason.
+And a new day will dawn for those who stand long,
+And the forests will echo with laughter.
+If there's a bustle in your hedgerow, don't be alarmed now,
+It's just a spring clean for the May queen.
+Yes, there are two paths you can go by, but in the long run
+There's still time to change the road you're on.
+And it makes me wonder.
+Your head is humming and it won't go, in case you don't know,
+The piper's calling you to join him,
+Dear lady, can you hear the wind blow, and did you know
+Your stairway lies on the whispering wind?
+And as we wind on down the road
+Our shadows taller than our soul.
+There walks a lady we all know
+Who shines white light and wants to show
+How everything still turns to gold.
+And if you listen very hard
+The tune will come to you at last.
+When all are one and one is all
+To be a rock and not to roll.
+And she's buying a stairway to heaven.
+_x000D_
+Walkin' in the park just the other day, Baby, _x000D_
+What do you, what do you think I saw? _x000D_
+Crowds of people sittin' on the grass with flowers in their hair said, _x000D_
+"Hey, Boy, do you wanna score?" _x000D_
+And you know how it is; _x000D_
+I really don't know what time it was, woh, oh, _x000D_
+So I asked them if I could stay awhile. 
+_x000D_
+I didn't notice but it had got very dark and I was really, _x000D_
+Really out of my mind. _x000D_
+Just then a policeman stepped up to me and asked us said, _x000D_
+"Please, hey, would we care to all get in line, _x000D_
+Get in line." _x000D_
+Well you know, They asked us to stay for tea and have some fun, _x000D_
+Oh, oh, he said that his friends would all drop by, ooh. 
+_x000D_
+Why don't you take a good look at yourself and describe what you see, _x000D_
+And Baby, Baby, Baby, do you like it? _x000D_
+There you sit, sitting spare like a book on a shelf rustin' _x000D_
+Ah, not trying to fight it. _x000D_
+You really don't care if they're coming, oh, oh, _x000D_
+I know that it's all a state of mind, ooh. 
+_x000D_
+If you go down in the streets today, Baby, you better, _x000D_
+You better open your eyes. _x000D_
+Folk down there really don't care, really don't care, don't care, really don't _x000D_
+Which, which way the pressure lies, _x000D_
+So I've decided what I'm gonna do now. _x000D_
+So I'm packing my bags for the Misty Mountains _x000D_
+Where the spirits go now, _x000D_
+Over the hills where the spirits fly, ooh. _x000D_
+I really don't know.
+_x000D_
+One, two, three, four, five, six.
+One, two, three.
+One.
+Oh, baby, it's cryin' time, 
+Oh, baby, I got to fly.
+Got to try to find a way, 
+Got to try to get away,
+'Cause you know I gotta get away from you, babe.
+Oh, baby, the river's red, 
+Oh, baby, in my head.
+There's a funny feelin' goin' on. 
+I don't think I can hold out long.
+And when the owls cry in the night, 
+Oh, baby, baby, when the pines begin to cry,
+Baby, baby, baby, how do you feel? 
+If the rivers run dry, baby, how would you feel?
+Craze, baby, the rainbow's end, 
+Mm, baby, it's just a den
+For those who hide, 
+Who hide their love to depths of life
+And ruin dreams that we all knew so, babe.
+And when the owls cry in the night, 
+Oh, baby, baby, when the pines begin to cry,
+Baby, baby, baby, how do you feel? 
+If the rivers run dry, baby, how do you feel?
+Baby, how do you feel?
+Ooh yeah, brave I endure.
+Ooh yeah, strong shields and lore.
+They can't hold the wrath of those who walk,
+And the boots of those who march,
+Baby, through the roads of time so long ago.
+_x000D_
+Spent my days with a woman unkind
+Smoked my stuff and drank all my wine
+Made up my mind to make a new start
+Going to California with an aching in my heart
+Someone told me there's a girl out there
+With love in her eyes and flowers in her hair
+Took my chances on a big jet plane
+Never let them tell you that they're all the same
+The sea was red and the sky was grey
+Wondered how tomorrow could ever follow today
+Mountains and the canyons start to tremble and shake
+The children of the sun begin to awake
+Watch out
+Seems that the wrath
+Of the Gods
+Got a punch on the nose
+And it started to flow
+I think I might be sinking
+Throw me a line
+If I reach it in time
+I'll meet you up there
+Where the path runs straight
+And high
+To find a queen without a king
+They say she plays guitar and cries and sings
+Ride a white mare in the footsteps of dawn
+Tryin' to find a woman who's never, never, never been born
+Standing on a hill in the mountain of dreams
+Telling myself it's not as hard, hard, hard as it seems
+_x000D_
+If it keeps on rainin', levee's goin' to break
+If it keeps on rainin', levee's goin' to break
+When the levee breaks I'll have no place to stay
+Mean old levee taught me to weep and moan
+Mean old levee taught me to weep and moan
+It's got what it takes to make a mountain man leave his home
+Oh, well, oh, well, oh, well
+Don't it make you feel bad
+When you're tryin' to find your way home
+You don't know which way to go?
+If you're goin' down south
+Then there's no work to do
+If you re goin' north there's Chicago
+Cryin' won't help you, prayin' won't do you no good
+Now, cryin' won't help you, prayin' won't do you no good
+When the levee breaks, mama, you got to move
+All last night I sat on the levee and moaned
+All last night sat on the levee and moaned
+Thinkin' about my baby and my happy home
+Going, I'm going to Chicago
+Going to Chicago
+Sorry but I can't take you
+Going down... going down now
+Going down... going down now
+Going down
+Going down
+Going down
+Going down
+Going down now
+Going down
+Going down now
+Going down
+Going down now
+Going down
+Going down
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+_x000D_
 (We came in)
 So ya thought ya might like to go to the show
 To feel the warm thrill of confusion
@@ -1374,6 +2012,457 @@
   <si>
     <t xml:space="preserve">
 _x000D_
+I'm rolling thunder pouring rain
+I'm coming on like a hurricane
+My lightning's flashing across the sky
+You're only young but you're gonna die
+I won't take no prisoners won't spare no lives
+Nobody's putting up a fight
+I got my bell I'm gonna take you to hell
+I'm gonna get ya Satan get ya
+Hells bells
+Hells bells, you got me ringing
+Hells bells, my temperature's high
+Hells bells
+I'll give you black sensations up and down your spine
+If you're into evil you're a friend of mine
+See the white light flashing as I split the night
+Cause if good's on the left then I'm sticking to the right
+I won't take no prisoners won't spare no lives
+Nobody's puttin' up a fight
+I got my bell I'm gonna take you to hell
+I'm gonna get ya Satan get ya
+Hells bells
+Hells bells, you got me ringing
+Hells bells, my temperature's high
+Hells bells
+Hells bells, Satan's coming to you
+Hells bells, he's ringing them now
+Those hells bells, the temperature's high
+Hells bells, across the sky
+Hells bells, they're taking you down
+Hells bells, they're dragging you under
+Hells bells, gonna split the night
+Hells bells, there's no way to fight
+Hells bells
+_x000D_
+All you women who want a man of the street
+Don't know which way you wanna turn
+Just keep a-coming
+And put your hand out to me
+Cause I'm the one who's gonna make you burn
+I'm gonna take you down
+Down down down
+So don't you fool around
+I'm gonna pull it, pull it
+Pull the trigger
+Shoot to thrill play to kill
+Too many women too many pills, yeah
+Shoot to thrill play to kill
+I got my gun at the ready gonna fire at will
+I'm like evil I get under your skin
+Just like a bomb that's ready to blow
+Cause I'm illegal
+I got everything
+That all you women might need to know
+I'm gonna take you down
+Yeah down, down, down
+So don't you fool around
+I'm gonna pull it, pull it
+Pull the trigger
+Shoot to thrill play to kill
+Too many women too many pills
+Shoot to thrill play, to kill
+I got my gun at the ready gonna fire at will
+Cause I shoot to thrill and I'm ready to kill
+I can't get enough and I can't get my fill
+Shoot to thrill, play to kill
+Pull the trigger, pull it
+Pull it pull it
+Pull the trigger
+Shoot to thrill play to kill
+Too many women too many pills, said
+Shoot to thrill play to kill
+I got my gun at the ready gonna fire at will
+Cause I shoot to thrill and I'm ready to kill
+I can't get enough and I can't get my fill
+Cause I shoot to thrill, play to kill
+Yeah
+Shoot you down, yeah
+I'm gonna get you down on the bottom girl
+Shoot you, I'm gonna shoot you
+Oh yeah, yeah, yeah, yeah
+I'm gonna shoot you down, yeah yeah
+I'm gonna get you down, down down down down
+Shoot you, shoot you, shoot you, shoot you down
+Shoot you, shoot you, shoot you down
+I'm gonna shoot to thrill
+Play to kill
+Shoot to thrill
+_x000D_
+You workin' in bars ridin' in cars
+Never gonna give it for free
+Your apartment with a view on the finest avenue
+Lookin' at your beat on the street
+You're always pushin', shovin', satisfied with nothing
+You bitch you must be gettin' old
+So stop your life on the road
+All your diggin' for gold
+You make me wonder
+Yes I wonder
+I wonder
+Honey, what do you do for money
+Honey, what do you do for money
+Where do you get your kicks
+You're lovin' on the take and you're always on the make
+Squeezin' all the blood outta men
+They're all standin' in a queue just to spend a night with you
+It's business as usual again
+You're always grabbin', stabbin' trying get it back in
+But girl you must be gettin' slow
+So stop your life on the road
+All your diggin' for gold
+You make me wonder
+Yes I wonder
+Yes I wonder
+Honey, what do you do for money
+Honey, what do you do for money
+What do you do for money honey
+How do you get your kicks
+What do you do for money honey
+How do you get your licks
+Honey, what do you do for money, I said
+Honey, what do you do for money, oh yeah
+Honey, what do you do for money
+Honey, what you gotta do for money
+Honey, what do you do for money
+What do you gotta do
+What do you gotta do
+_x000D_
+She take you down easy
+Going down to her knees
+Going down to the devil
+Down down to ninety degrees
+Oh, she's blowing me crazy
+She blowing me crazy
+'Til my ammunition is dry
+Oh, she's using her head again
+She's using her head
+Oh, she's using her head again
+I'm just a-giving the dog a bone
+Giving the dog a bone, giving the dog a bone
+Giving the dog a bone
+I'm just a-giving the dog a bone
+Giving the dog a bone
+I'm just a-giving the dog a bone
+Giving the dog a bone
+Oh, she's no Mona Lisa
+No she's no Playboy star
+But she'll send you to heaven
+Then explode you to Mars
+Oh, she's using her head again
+She's using her head
+Oh, she's using her head again
+I'm just a-giving the dog a bone
+Giving the dog a bone, giving the dog a bone
+Giving the dog a bone, giving the dog a bone
+I'm just a-giving the dog a bone
+Giving the dog a bone
+I'm just a-giving the dog a bone
+Giving the dog a bone
+She's got the power of union
+She only hits when it's hot
+And if she likes what you're doing
+She'll give you the lot
+Give it everything I got
+Just giving the dog a bone
+Giving the dog a bone, giving the dog a bone
+Giving the dog a bone, giving the dog a bone
+Giving the dog a bone, giving the dog a bone
+Giving the dog a bone
+I'm just a-giving the dog a bone
+Giving the dog a bone, giving the dog a bone
+Giving the dog a bone
+I'm just a-giving the dog a bone
+Giving the dog a bone
+I'm just a-giving the dog a bone
+Giving the dog
+Giving the dog
+I'm just a-giving the dog a bone
+_x000D_
+Flying on a free flight
+Driving all night with my machinery
+Cause I
+I got the power any hour
+To show the man in me
+I got
+Reputations blown to pieces with my artillery
+Well I'll be guiding and we'll be riding
+Giving what you got to me
+Don't you struggle
+Don't you fight
+Don't you worry cause it's your turn tonight
+Let me put my love into you babe
+Let me put my love on the line
+Let me put my love into you babe
+Let me cut your cake with my knife
+Like a fever burning faster
+You spark the fire in me
+Crazy feelings got me reeling
+They got me raising steam
+Now don't you struggle
+Don't you fight
+Don't you worry cause it's your turn tonight, yeah
+Let me put my love into you babe
+Let me put my love on the line
+Let me put my love into you babe
+Let me cut your cake with my knife
+Oh! Come on!
+Let me, let me
+Let me put my love into you babe
+Let me put my love on the line
+Let me put my love into you babe
+Let me cut your cake with my knife
+Let me put my love into you babe
+Let me put my love on the line
+Let me put my love into you babe
+Let me give it all
+Let me give it all
+To you
+To you
+Give it all
+_x000D_
+Back in black I hit the sack
+I've been too long I'm glad to be back
+Yes I am
+Let loose from the noose
+That's kept me hanging about
+I kept looking at the sky cause it's gettin' me high
+Forget the hearse cause I'll never die
+I got nine lives cat's eyes
+Abusin' every one of them and runnin' wild
+Cause I'm back
+Yes I'm back
+Well I'm back
+Yes I'm back
+Well I'm back back
+Well I'm back in black
+Yes I'm back in black
+Back in the back of a Cadillac
+Number one with a bullet I'm a power pack
+Yes I am
+In a bang with the gang
+They've got to catch me if they want me to hang
+Cause I'm back on the track and I'm beatin' the flack
+Nobody's gonna get me on another rap
+So look at me now I'm just makin' my play
+Don't try to push your luck just get out of my way
+Cause I'm back
+Yes I'm back
+Well I'm back
+Yes I'm back
+Well I'm back back
+Well I'm back in black
+Yes I'm back in black
+Well I'm back yes I'm back
+Well I'm back yes I'm back
+Well I'm back back
+Well I'm back in black
+Yes I'm back in black
+Ho yeah
+Oh yeah
+Yes I am
+Oh yeah, yeah oh yeah
+Back in now
+Well I'm back, I'm back
+Back, (I'm back)
+Back, (I'm back)
+Back, (I'm back)
+Back, (I'm back)
+Back
+Back in black
+Yes I'm back in black
+Outta sight
+_x000D_
+She was a fast machine she kept her motor clean
+She was the best damn woman that I ever seen
+She had the sightless eyes telling me no lies
+Knocking me out with those American thighs
+Taking more than her share
+Had me fighting for air
+She told me to come but I was already there
+Cause the walls start shaking
+The earth was quaking
+My mind was aching
+And we were making it
+And you shook me all night long
+Yeah you shook me all night long
+I'm working double time on the seduction line
+She's one of a kind she's just mine all mine
+Wanted no applause it's just another course
+Made a meal outta me
+And come back for more
+Had to cool me down to take another round
+Now I'm back in the ring to take another swing
+Cause the walls were shaking the earth was quaking
+My mind was aching
+And we were making it
+And you shook me all night long
+Yeah you shook me all night long
+Knocked me out I said you
+Shook me all night long
+You had me shaking and you
+Shook me all night long
+Yeah you shook me
+When you took me
+You really took me and you
+Shook me all night long
+You shook me all night long
+Yeah, yeah, you shook me all night long
+You really got me and you
+Shook me all night long
+Yeah you shook me
+Yeah you shook me
+All night long
+_x000D_
+Whiskey gin and brandy
+With a glass I'm pretty handy
+I'm tryin' to walk a straight line
+On sour mash and cheap wine
+So join me for a drink boys
+We're gonna make a big noise
+So don't worry 'bout tomorrow
+Take it today
+Forget about the check we'll get hell to pay
+Have a drink on me
+Yeah have a drink on me
+Yeah have a drink on me
+Have a drink on me
+I'm dizzy drunk and fightin
+On tequila white lightnin
+My glass is getting shorter
+On whiskey ice and water
+So c'mon have a good time
+And get blinded outta your mind
+So don't worry 'bout tomorrow
+Take it today
+Forget about the check we'll get hell to pay
+Have a drink on me
+Yeah have a drink on me
+Yeah have a drink on me
+Have a drink on me
+Get stoned
+Have a drink on me
+Have a drink on me
+Have a drink on me
+C'mon
+Gonna roll around
+Gonna hit the ground
+Take another swig
+Have another drink
+Gonna drink you dry
+Gonna get me high
+C'mon all the boys
+Make a noise have a drink on me
+Have a drink on me
+Have a drink on me
+Have a drink on me
+Have a drink on me
+Have a drink on me
+Have a drink
+On
+Me
+_x000D_
+Idle juvenile on the street on the street
+Kickin' everything with his feet with his feet
+Fightin' on the wrong side of the law of the law
+Don't kick don't fight don't sleep at night
+And shake a leg
+Shake a leg
+Shake a leg
+Shake it again
+Keepin' outta trouble with eyes in the back of my face
+Kickin' ass in the class and they tell me I'm a damn disgrace
+They tell me what they think but they stink and I really don't care
+Got a mind of my own move on get outta my hair
+Shake a leg shake your head
+Shake a leg wake the dead
+Shake a leg get stuck in
+Shake a leg shake a leg
+Mob scenes, wet dreams, dirty women on machines for me
+Big licks skin flicks tricky dicks are my chemistry
+Goin' against the grain tryin to keep me sane with you
+So stop your grinnin' and drop your linen for me
+Shake a leg shake your head
+Shake a leg wake the dead
+Shake a leg get stuck in
+Shake a leg shake a leg
+Shake it
+Idle juvenile on the street on the street
+Kickin' everything with his feet with his feet
+Fightin' on the wrong side of the law of the law
+Spittin' and bitin' and kickin' and fightin' for more
+Shake a leg shake your head
+Shake a leg wake the dead
+Shake a leg get stuck in
+Shake a leg play to win
+Shake a leg shake your head
+Shake a leg wake the dead
+Shake a leg get stuck in
+Shake a leg
+Shake a leg
+Shake it
+_x000D_
+Hey there all you middle men
+Throw away your fancy clothes
+And while you're out sittin' on a fence
+So get off your arse and come down here
+Cause rock 'n' roll ain't no riddle man
+To me it makes good good sense
+Good sense yeah let's go
+Heavy decibels are playing on my guitar
+We got vibrations comin' up from the floor
+We're just listenin' to the rock
+That's givin' too much noise
+Are you deaf you wanna hear some more
+We're just talking about the future
+Forget about the past
+It'll always be with us
+It's never gonna die
+Never gonna die
+Rock 'n' roll ain't noise pollution
+Rock 'n' roll ain't gonna die
+Rock 'n' roll ain't noise pollution
+Rock 'n' roll it will survive
+Yes it will
+I took a look inside your bedroom door
+You looked so good lyin' on your bed
+Well I asked you if you wanted any rhythm and love
+You said you wanna rock 'n' roll instead
+We're just talking about the future
+Forget about the past
+It'll always be with us
+It's never gonna die
+Never gonna die
+Rock 'n' roll ain't noise pollution
+Rock 'n' roll ain't gonna die
+Rock 'n' roll ain't noise pollution
+Rock 'n' roll is just rock 'n' roll
+Rock 'n' roll ain't noise pollution
+Rock 'n' roll ain't gonna die
+Rock 'n' roll ain't noise pollution
+Rock 'n' rolling will survive
+Rock 'n' roll ain't noise pollution
+Rock 'n' roll will never die
+Rock 'n' roll ain't noise pollution
+Rock 'n' roll
+Rock 'n' roll
+Is just rock 'n' roll
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+_x000D_
 We all came here for a party tonight
 And your gonna get left if you don't get right, child
 So forget your troubles and forget the news
@@ -1531,998 +2620,439 @@
   <si>
     <t xml:space="preserve">
 _x000D_
-Let's go girls! Come on.
-I'm going out tonight-I'm feelin' alright
-Gonna let it all hang out
-Wanna make some noise-really raise my voice
-Yeah, I wanna scream and shout
-No inhibitions-make no conditions
-Get a little outta line
-I ain't gonna act politically correct
-I only wanna have a good time
-The best thing about being a woman
-Is the prerogative to have a little fun
-Oh, oh, oh, go totally crazy-forget I'm a lady
-Men's shirts-short skirts
-Oh, oh, oh, really go wild-yeah, doin' it in style
-Oh, oh, oh, get in the action-feel the attraction
-Color my hair-do what I dare
-Oh, oh, oh, I wanna be free-yeah, to feel the way I feel
-Man! I feel like a woman!
-The girls need a break-tonight we're gonna take
-The chance to get out on the town
-We don't need romance-we only wanna dance
-We're gonna let our hair hang down
-The best thing about being a woman
-Is the prerogative to have a little fun
-Oh, oh, oh, go totally crazy-forget I'm a lady
-Men's shirts-short skirts
-Oh, oh, oh, really go wild-yeah, doin' it in style
-Oh, oh, oh, get in the action-feel the attraction
-Color my hair-do what I dare
-Oh, oh, oh, I wanna be free-yeah, to feel the way I feel
-Man! I feel like a woman!
-The best thing about being a woman
-Is the prerogative to have a little fun (fun, fun)
-Oh, oh, oh, go totally crazy-forget I'm a lady
-Men's shirts-short skirts
-Oh, oh, oh, really go wild-yeah, doin' it in style
-Oh, oh, oh, get in the action-feel the attraction
-Color my hair-do what I dare
-Oh, oh, oh, I wanna be free-yeah, to feel the way I feel
-Man! I feel like a woman!
-I get totally crazy
-Can you feel it
-Come, come, come on baby
-I feel like a woman
-_x000D_
-I don't need a shrink to tell me what to think_x000D_
-There ain't no missing link in my love life_x000D_
-It's alright, I ain't that uptight_x000D_
-I don't need a psychic 'cause I don't really like it_x000D_
-When someone tries to tell me just what my future holds_x000D_
-I already know _x000D_
-Your love keeps me alive_x000D_
-You're all I need to survive_x000D_
-I got you by my side 
-_x000D_
-So I'm holdin' on-I'm feelin' strong-baby you're the one_x000D_
-For all my life!_x000D_
-Yeah I'm holdin' out-there ain't no doubt-I can't live without_x000D_
-You all my life!_x000D_
-I'm holdin' on to love to save my life 
-_x000D_
-I don't need to get all caught up on the net 'cause I'm already set_x000D_
-Can't you understand-already got my man_x000D_
-No I don't need proof to show me the truth, not even Dr. Ruth_x000D_
-Is gonna tell me how I feel-I know our love is real 
-_x000D_
-Your love keeps me alive_x000D_
-You're all I need to survive_x000D_
-I got you by my side 
-_x000D_
-So I'm holdin' on-I'm feelin' strong-baby you're the one_x000D_
-For all my life!_x000D_
-Yeah I'm holdin' out-there ain't no doubt-I can't live without_x000D_
-You all my life!_x000D_
-I'm holdin' on to love to save my life 
-_x000D_
-(I'm holdin' on to love to save my life) 
-_x000D_
-Your love keeps me alive_x000D_
-You're all I need to survive_x000D_
-I got you by my side 
-_x000D_
-So I'm holdin' on-I'm feelin' strong-baby you're the one_x000D_
-For all my life!_x000D_
-Yeah I'm holdin' out-there ain't no doubt-I can't live without_x000D_
-You all my life!_x000D_
-I'm holdin' on to love to save my life 
-_x000D_
-Save me, save me, save me_x000D_
-Save my life
-_x000D_
-Life was goin' great_x000D_
-Love was gonna have to wait_x000D_
-Was in no hurry-had no worries_x000D_
-Stayin' single was the plan_x000D_
-Didn't need a steady man_x000D_
-I had it covered-'til I discovered _x000D_
-That love gets me every time_x000D_
-My heart changed my mind_x000D_
-I gol' darn gone and done it 
-_x000D_
-Gone and done it (gone and done it)_x000D_
-Guess I fell in love (gone and done it)_x000D_
-Must've been the way he walked (gone and done it)_x000D_
-Or his sweet, sweet talk (gone and done it)_x000D_
-I guess I- - - gol' darn gone and done it 
-_x000D_
-I was quite content_x000D_
-Just a-payin' my own rent_x000D_
-It was my place-I needed my space_x000D_
-I was free to shop around_x000D_
-In no rush to settle down_x000D_
-I had it covered-'til I discovered 
-_x000D_
-That love gets me every time_x000D_
-My heart changed my mind_x000D_
-I gol' darn gone and done it 
-_x000D_
-Gone and done it (gone and done it)_x000D_
-Guess I fell in love (gone and done it)_x000D_
-Must've been the way he walked (gone and done it)_x000D_
-Or his sweet, sweet talk (gone and done it)_x000D_
-I guess I- - - gol' darn gone and done it 
-_x000D_
-Love gets me every time_x000D_
-My heart changed my mind_x000D_
-I gol' darn gone and done it 
-_x000D_
-Gone and done it (gone and done it)_x000D_
-Guess I fell in love (gone and done it)_x000D_
-Must've been the way he walked (gone and done it)_x000D_
-Or his sweet, sweet talk (gone and done it)_x000D_
-It's in the way he calls my name (gone and done it)_x000D_
-I know I'll never be the same (gone and done it) 
-_x000D_
-Love gets me every time_x000D_
-My heart changed my mind_x000D_
-I gol' darn gone and done it 
-_x000D_
-Thought I had it covered_x000D_
-Life was going great_x000D_
-Well I gol' darn gone and done it
-_x000D_
-You're so complicated-you hang over my shoulder_x000D_
-When I read my mail_x000D_
-I don't appreciate it_x000D_
-When I talk to other guys_x000D_
-You think they're on my tail _x000D_
-I get so aggravated when I get off the phone_x000D_
-And I get the third degree_x000D_
-I'm really feelin' frustrated_x000D_
-Why don't you take a pill and put a little trust in me_x000D_
-And you'll see 
-_x000D_
-Don't freak out until you know the facts_x000D_
-Relax 
-_x000D_
-Don't be stupid-you know I love you_x000D_
-Don't be ridiculous-you know I need you_x000D_
-Don't be absurd-you know I want you_x000D_
-Don't be impossible 
-_x000D_
-I'm mad about you (I'm mad about you)_x000D_
-Can't live without you (can't live without you)_x000D_
-I'm crazy 'bout you (I'm crazy 'bout you)_x000D_
-So don't be stupid-you know I love you 
-_x000D_
-Stop overreacting_x000D_
-You even get suspicious when I paint my nails_x000D_
-It's definitely distracting_x000D_
-The way you dramatize every little small detail 
-_x000D_
-Don't freak out until you know the facts_x000D_
-Relax-Max 
-_x000D_
-Don't be stupid-you know I love you_x000D_
-Don't be ridiculous-you know I need you_x000D_
-Don't be absurd-you know I want you_x000D_
-Don't be impossible_x000D_
-I'm mad about you (I'm mad about you)_x000D_
-Can't live without you (can't live without you)_x000D_
-I'm crazy 'bout you (I'm crazy 'bout you)_x000D_
-Don't be stupid-you know I love you 
-_x000D_
-Don't be stupid-you're my baby 
-_x000D_
-I'm mad about you (I'm mad about you)_x000D_
-Can't live without you (can't live without you)_x000D_
-I'm crazy 'bout you (I'm crazy 'bout you)_x000D_
-Don't be stupid-you know I love you_x000D_
-Don't be ridiculous-you know I need you_x000D_
-Don't be absurd-you know I want you_x000D_
-Don't be impossible
-_x000D_
-I do swear that I'll always be there
-I'd give anything and everything and I will always care
-Through weakness and strength, happiness and sorrow, for better for worse, I will love you with every beat of my heart
-From this moment life has begun
-From this moment you are the one
-Right beside you is where I belong
-From this moment on
-From this moment I have been blessed
-I live only for your happiness
-And for your love I'd give my last breath
-From this moment on
-I give my hand to you with all my heart
-I can't wait to live my life with you
-I can't wait to start
-You and I will never be apart
-My dreams came true because of you
-From this moment as long as I live
-I will love you, I promise you this
-There is nothing I wouldn't give
-From this moment on
-You're the reason I believe in love
-And you're the answer to my prayers from up above
-All we need is just the two of us
-My dreams came true because of you
-From this moment as long as I live
-I will love you, I promise you this
-There is nothing I wouldn't give
-From this moment
-I will love you as long as I live
-From this moment on
-_x000D_
-Get a life-get a grip_x000D_
-Get away somewhere, take a trip_x000D_
-Take a break-take control_x000D_
-Take advice from someone you know _x000D_
-Come on over-come on in_x000D_
-Pull up a seat-take a load off your feet_x000D_
-Come on over-come on in_x000D_
-You can unwind-take a load off your mind 
-_x000D_
-Make a wish-make a move_x000D_
-Make up your mind-you can choose_x000D_
-When you're up-when you're down_x000D_
-When you need a laugh come around 
-_x000D_
-Come on over-come on in_x000D_
-Pull up a seat-take a load off your feet_x000D_
-Come on over-come on in_x000D_
-You can unwind-take a load off your mind 
-_x000D_
-Oh, oh, oh... 
-_x000D_
-Be a winner-be a star_x000D_
-Be happy to be who you are_x000D_
-Gotta be yourself-gotta make a plan_x000D_
-Gotta go for it while you can 
-_x000D_
-Come on over-come on in_x000D_
-Pull up a seat-take a load off your feet_x000D_
-Come on over-come on in_x000D_
-You can unwind-take a load off your mind 
-_x000D_
-Get a life-get a grip_x000D_
-Get away somewhere, take a trip_x000D_
-Take a break-take control_x000D_
-Take advice from someone you know 
-_x000D_
-Come on over-come on in_x000D_
-Pull up a seat-take a load off your feet_x000D_
-Come on over-come on in_x000D_
-You can unwind-take a load off your mind 
-_x000D_
-Oh, oh, oh...
-_x000D_
-If elephants could fly I'd be a little more optimistic_x000D_
-But I don't see that happening anytime soon_x000D_
-I don't mean to sound so pessimistic_x000D_
-But I don't think that cow really jumped over the moon _x000D_
-When will I wake up?_x000D_
-Why did we break up?_x000D_
-When will we make up? 
-_x000D_
-When money grows on trees_x000D_
-People live in peace_x000D_
-Everyone agrees_x000D_
-When happiness is free_x000D_
-Love can guarantee_x000D_
-You'll come back to me-that's when 
-_x000D_
-I'd love to wake up smiling-full of the joys of spring_x000D_
-And hear on CNN that Elvis lives again_x000D_
-And that John's back with the Beatles and they're going out on tour_x000D_
-I'll be the first in line for tickets-gotta see that show for sure 
-_x000D_
-When will I wake up?_x000D_
-Why did we break up?_x000D_
-When will we make up? 
-_x000D_
-When money grows on trees_x000D_
-People live in peace_x000D_
-Everyone agrees_x000D_
-When happiness is free_x000D_
-Love can guarantee_x000D_
-You'll come back to me-that's when 
-_x000D_
-When will I wake up?_x000D_
-Why did we break up?_x000D_
-When will we make up? 
-_x000D_
-When money grows on trees_x000D_
-People live in peace_x000D_
-Everyone agrees_x000D_
-When happiness is free_x000D_
-Love can guarantee_x000D_
-You'll come back to me-that's when
-_x000D_
-Deep in Denialville_x000D_
-Tryin' a' fight the way I feel_x000D_
-I go jello when you smile_x000D_
-I start blushin'-my head rushin' _x000D_
-If you stand too close to me_x000D_
-I might melt down from the heat_x000D_
-If ya' look my way one more time_x000D_
-I'm gonna go out of my mind_x000D_
-Whatever you do... 
-_x000D_
-Don't even think about it!_x000D_
-Don't go and get me started!_x000D_
-Don't you dare drive me crazy!_x000D_
-Don't do that to me baby! 
-_x000D_
-You stop me in my tracks_x000D_
-My heart pumpin' to the max_x000D_
-I'm such a sucker for your eyes_x000D_
-They permanently paralyze_x000D_
-Whatever you do... 
-_x000D_
-Don't even think about it!_x000D_
-Don't go and get me started!_x000D_
-Don't you dare drive me crazy!_x000D_
-Don't do that to me baby! 
-_x000D_
-(Whatever you do, don't do that to me)_x000D_
-You got my heart under attack_x000D_
-You give me shivers down my back_x000D_
-D'ya have to walk the way you do?_x000D_
-I get weak just watchin' you_x000D_
-Whatever you do... 
-_x000D_
-Don't even think about it!_x000D_
-Don't go and get me started!_x000D_
-Don't you dare drive me crazy!_x000D_
-Don't do that to me baby! 
-_x000D_
-Don't do that-don't do that
-_x000D_
-Let me let you in on a secret_x000D_
-How to treat a woman right_x000D_
-If you're lookin' for a place in her heart_x000D_
-It ain't gonna happen overnight _x000D_
-First you gotta learn to listen_x000D_
-To understand her deepest thoughts_x000D_
-She needs to know you can be friends_x000D_
-Before she'll give you all she's got 
-_x000D_
-If you start from the heart_x000D_
-You'll see love is gonna play it's part 
-_x000D_
-If you wanna get to know her_x000D_
-Really get inside her mind_x000D_
-If you wanna move in closer_x000D_
-Take it slow, yeah take your time_x000D_
-You must start from the heart and then..._x000D_
-If you wanna touch her_x000D_
-Really wanna touch her_x000D_
-if you wanna touch her, ask! 
-_x000D_
-A little physical attraction_x000D_
-Romantic, old-fashioned charm_x000D_
-And a lot of love and tenderness_x000D_
-Is gonna get you into her arms 
-_x000D_
-If you start from the heart_x000D_
-You'll see love is gonna play it's part 
-_x000D_
-If you wanna get to know her_x000D_
-Really get inside her mind_x000D_
-If you wanna move in closer_x000D_
-Take it slow, yeah take your time_x000D_
-You must start from the heart and then..._x000D_
-If you wanna touch her_x000D_
-Really wanna touch her_x000D_
-if you wanna touch her, ask! 
-_x000D_
-Let me let you in on a secret_x000D_
-How to treat a woman right_x000D_
-If you're lookin' for a place in her heart_x000D_
-It ain't gonna happen overnight 
-_x000D_
-If you wanna get to know her_x000D_
-Really get inside her mind_x000D_
-If you wanna move in closer_x000D_
-Take it slow, yeah take your time_x000D_
-You must start from the heart and then..._x000D_
-If you wanna touch her_x000D_
-Really wanna touch her_x000D_
-if you wanna touch her, ask!
-_x000D_
-(When I first saw you, I saw love
-And the first time you touched me, I felt love
-And after all this time, you're still the one I love)
-Looks like we made it
-Look how far we've come, my baby
-We mighta took the long way
-We knew we'd get there someday
-They said, "I bet they'll never make it"
-But just look at us holding on
-We're still together, still going strong
-(You're still the one)
-You're still the one I run to
-The one that I belong to
-You're still the one I want for life
-(You're still the one)
-You're still the one that I love
-The only one I dream of
-You're still the one I kiss good night
-Ain't nothing better
-We beat the odds together
-I'm glad we didn't listen
-Look at what we would be missing
-They said, "I bet they'll never make it"
-But just look at us holding on
-We're still together still going strong
-(You're still the one)
-You're still the one I run to
-The one that I belong to
-You're still the one I want for life
-(You're still the one)
-You're still the one that I love
-The only one I dream of
-You're still the one I kiss good night
-You're still the one
-(You're still the one)
-You're still the one I run to
-The one that I belong to
-You're still the one I want for life
-(You're still the one)
-You're still the one that I love
-The only one I dream of
-You're still the one I kiss good night
-I'm so glad we made it
-Look how far we've come, my baby
-_x000D_
-The car won't start-it's falling apart_x000D_
-I was late for work and the boss got smart_x000D_
-My pantyline shows-got a run in my hose_x000D_
-My hair went flat-man, I hate that _x000D_
-Just when I thought things couldn't get worse_x000D_
-I realized I forgot my purse_x000D_
-With all this stress-I must confess_x000D_
-This could be worse than PMS 
-_x000D_
-This job ain't worth the pay _x000D_
-Can't wait 'til the end of the day_x000D_
-Honey, I'm on my way_x000D_
-Hey! Hey! Hey! Hey! 
-_x000D_
-Honey, I'm home and I had a hard day_x000D_
-Pour me a cold one and oh, by the way_x000D_
-Rub my feet, gimme something to eat_x000D_
-Fix me up my favorite treat_x000D_
-Honey, I'm back, my head's killing me_x000D_
-I need to relax and watch TV_x000D_
-Get off the phone-give the dog a bone_x000D_
-Hey! Hey! Honey, I'm home! 
-_x000D_
-I broke a nail opening the mail_x000D_
-I cursed out loud 'cause it hurt like hell_x000D_
-This job's a pain-it's so mundane_x000D_
-It sure don't stimulate my brain 
-_x000D_
-This job ain't worth the pay _x000D_
-Can't wait 'til the end of the day_x000D_
-Honey, I'm on my way_x000D_
-Hey! Hey! Hey! Hey! 
-_x000D_
-Honey, I'm home and I had a hard day_x000D_
-Pour me a cold one and oh, by the way_x000D_
-Rub my feet, gimme something to eat_x000D_
-Fix me up my favorite treat_x000D_
-Honey, I'm back, my head's killing me_x000D_
-I need to relax and watch TV_x000D_
-Get off the phone-give the dog a bone_x000D_
-Hey! Hey! Honey, I'm home! 
-_x000D_
-Oh, rub my neck will you 
-_x000D_
-Honey, I'm home and I had a hard day_x000D_
-Pour me a cold one and oh, by the way_x000D_
-Rub my feet, gimme something to eat_x000D_
-Fix me up my favorite treat_x000D_
-Honey, I'm back, my head's killing me_x000D_
-I need to relax and watch TV_x000D_
-Get off the phone-give the dog a bone_x000D_
-Hey! Hey! Honey, I'm home! 
-_x000D_
-I'm home, that feels much better
-_x000D_
-I've known a few guys who thought they were pretty smart
-But you've got being right down to an art
-You think you're a genius, you drive me up the wall
-You're a regular original, a know-it-all
-Oh-oo-oh, you think you're special
-Oh-oo-oh, you think you're something else
-OK, so you're a rocket scientist
-That don't impress me much
-So you got the brain but have you got the touch?
-Now don't get me wrong, yeah, I think you're alright
-But that won't keep me warm in the middle of the night
-That don't impress me much
-I never knew a guy who carried a mirror in his pocket
-And a comb up his sleeve just in case
-And all that extra-hold gel in your hair oughtta lock it
-'Cause Heaven forbid it should fall outta place
-Oh-oo-oh, you think you're special
-Oh-oo-oh, you think you're something else
-OK, so you're Brad Pitt
-That don't impress me much
-So you got the looks but have you got the touch?
-Now don't get me wrong, yeah, I think you're alright
-But that won't keep me warm in the middle of the night
-That don't impress me much
-You're one of those guys who likes to shine his machine
-You make me take off my shoes before you let me get in
-I can't believe you kiss your car good night
-Now, c'mon, baby, tell me? You must be jokin', right?
-Oh-oo-oh, you think you're special
-Oh-oo-oh, you think you're something else
-OK, so you've got a car
-That don't impress me much
-So you got the moves but have you got the touch?
-Now don't get me wrong, yeah, I think you're alright
-But that won't keep me warm in the middle of the night
-That don't impress me much
-You think you're cool but have you got the touch?
-Now don't get me wrong, yeah, I think you're alright
-But that won't keep me warm on the long, cold, lonely night
-That don't impress me much
-OK. So, what do you think? You're Elvis or something?
-That don't impress me much!
-That don't impress me much!
-_x000D_
-Black eyes, I don't need 'em_x000D_
-Blue tears, gimme freedom _x000D_
-Positively never goin' back_x000D_
-I won't live where things are so out of whack_x000D_
-No more rollin' with the punches_x000D_
-No more usin' or abusin' 
-_x000D_
-I'd rather die standing_x000D_
-Than live on my knees_x000D_
-Begging please-no more 
-_x000D_
-Black eyes-I don't need 'em_x000D_
-Blue tears-gimme freedom_x000D_
-Black eyes-all behind me_x000D_
-Blue tears'll never find me now 
-_x000D_
-Definitley found my self esteem_x000D_
-Finally-I'm forever free to dream_x000D_
-No more cryin' in the corner_x000D_
-No excuses-no more bruises 
-_x000D_
-I'd rather die standing_x000D_
-Than live on my knees_x000D_
-Begging please-no more 
-_x000D_
-Black eyes-I don't need 'em_x000D_
-Blue tears-gimme freedom_x000D_
-Black eyes-all behind me_x000D_
-Blue tears'll never find me now 
-_x000D_
-I'd rather die standing_x000D_
-Than live on my knees, begging please... 
-_x000D_
-Black eyes-I don't need 'em_x000D_
-Blue tears-gimme freedom_x000D_
-Black eyes-all behind me_x000D_
-Blue tears'll never find me now 
-_x000D_
-It's all behind me, they'll never find me now 
-_x000D_
-Find your self-esteem and be forever free to dream
-_x000D_
-Together-midnight in summer_x000D_
-The air's so much warmer_x000D_
-Falling in love under starlight_x000D_
-Holding on so tight-together _x000D_
-I won't leave you lonely tonight_x000D_
-I want you to hold me all night_x000D_
-It's gonna be alright_x000D_
-I won't leave you lonely tonight 
-_x000D_
-Imagine-the air filled with jasmine_x000D_
-The breeze blows with passion_x000D_
-You and me dance with desire_x000D_
-The moon is on fire-imagine 
-_x000D_
-I won't leave you lonely tonight_x000D_
-I want you to hold me all night_x000D_
-It's gonna be alright_x000D_
-I won't leave you lonely tonight 
-_x000D_
-Je t'aime beaucoup mon amour_x000D_
-You are the one I adore 
-_x000D_
-I won't leave you lonely tonight_x000D_
-I want you to hold me all night_x000D_
-It's gonna be alright_x000D_
-No you won't be lonely tonight 
-_x000D_
-Na-na-na..._x000D_
-Te amo mucho mi amor_x000D_
-You are the one I adore_x000D_
-Te amo
-_x000D_
-I woke up this morning with a buzz rollin' 'round in my brain_x000D_
-I haven't been drinkin' but it feels pretty good just the same_x000D_
-It must be contagious-looks like it's goin' around_x000D_
-It's cool once you catch it-you can't keep your feet on the ground _x000D_
-C'mon, c'mon-let's get something started_x000D_
-C'mon, c'mon-let's start something now 
-_x000D_
-We're gonna rock this country_x000D_
-We're gonna rock this country_x000D_
-Every brown-eyed boy-every blue-eyed girl_x000D_
-Gotta really go psycho-give it a whirl_x000D_
-We're gonna rock this country_x000D_
-Right out of this world_x000D_
-Ah-oo-na-na-na... 
-_x000D_
-From Utah to Texas, Minnesota, Mississippi too_x000D_
-Or Nevada, no matter where you live-this buzz is for you 
-_x000D_
-C'mon, c'mon-let's get something started_x000D_
-C'mon, c'mon-let's start something now 
-_x000D_
-We're gonna rock this country_x000D_
-We're gonna rock this country_x000D_
-Every brown-eyed boy-every blue-eyed girl_x000D_
-Gotta really go psycho-give it a whirl_x000D_
-We're gonna rock this country_x000D_
-Right out of this world_x000D_
-Ah-oo-na-na-na... 
-_x000D_
-Ah-oo-na-na-na... 
-_x000D_
-We're pluggin' in the power_x000D_
-Crankin' up the sound_x000D_
-It's comin' your direction_x000D_
-It's headin' to your town_x000D_
-We're kickin' up dust_x000D_
-Blowin' off steam_x000D_
-Let's get nuts now_x000D_
-Everybody scream 
-_x000D_
-We're gonna rock this country_x000D_
-We're gonna rock this country_x000D_
-Every brown-eyed boy-every blue-eyed girl_x000D_
-Gotta really go psycho-give it a whirl_x000D_
-We're gonna rock this country_x000D_
-Right out of this world_x000D_
-Ah-oo-na-na-na...
-_x000D_
-You've got a way with me
-Somehow you got me to believe
-In everything that I could be
-I've gotta say-you really got a way
-You've got a way it seems
-You gave me faith to find my dreams
-You'll never know just what that means
-Can't you see... You got a way with me
-It's in the way you want me
-It's in the way you hold me
-The way you show me just what love's made of
-It's in the way we make love
-You've got a way with words
-You get me smiling even when it hurts
-There's no way to measure what your love is worth
-I can't believe the way you get through to me
-It's in the way you want me
-It's in the way you hold me
-The way you show me just what love's made of
-It's in the way we make love
-Oh, how I adore you
-Like no one before you
-I love you just the way you are
-It's in the way you want me
-It's in the way you hold me
-The way you show me just what love's made of
-It's in the way we make love
-It's just the way you are
+You got your big girl 
+Now you've got your young one too 
+Wondering if some day I could have them 
+the way I once had you 
+I remember your crazy remarks 
+We'd get drunk and go out after dark 
+Searching for someone we could take home 
+[Chorus:]
+You don't wanna be alone 
+You don't want to see the sun go down 
+You don't wanna open the door and see her go 
+One step and tomorrow comes 
+Two steps and she's off with someone 
+Three steps and it's all you know 
+You'll be gone, she'll be gone 
+So what are you gonna do about me 
+I'll be there when you have no one else 
+I'll be there, be your friend 
+Hold on strong, don't let go 
+There will never be no one to take your place 
+So don't you want to reach out and take my hand 
+[Repeat chorus]
+_x000D_
+With a little love, and some tenderness 
+We'll walk upon the water 
+We'll rise above this mess 
+With a little peace, and some harmony 
+We'll take the world together 
+We'll take 'em by the hand 
+'Cause I've got a hand for you 
+'Cause I wanna run with you 
+Yesterday, I saw you standing there 
+Your head was down, your eyes were red 
+No comb had touched your hair 
+I said get up, and let me see you smile 
+We'll take a walk together 
+Walk the road awhile, 'cause 
+'Cause I've got a hand for you 
+I've got a hand for you 
+'Cause I wanna run with you 
+Won't you let me run with you? yeah 
+Hold my hand 
+Want you to hold my hand 
+Hold my hand 
+I'll take you to a place where you can be 
+Hold my hand 
+Anything you wanna be because 
+I wanna love you the best that, the best that I can 
+See I was wasted, and I was wasting time 
+'Till I thought about your problems, I thought about your crimes 
+Then I stood up, and then I screamed aloud 
+I don't wanna be part of your problems 
+Don't wanna be part of your crowd, no 
+'Cause I've got a hand for you 
+I've got a hand for you 
+'Cause I wanna run with you 
+Ah, won't you let me run with you? 
+Hold my hand 
+Want you to hold my hand 
+Hold my hand 
+I'll take you to the promised land 
+Hold my hand 
+Maybe we can't change the world but 
+I wanna love you the best that, the best that I can, yeah 
+Hold my hand 
+Want you to hold my hand 
+Hold my hand 
+I'll take you to a place where you can be 
+Hold my hand 
+Anything you wanna be because 
+I...Oh...No, No, No, No, No 
+Hold my hand 
+Want you to hold my hand 
+Hold my hand 
+I'll take you to the promised land 
+Hold my hand 
+Maybe we can't change the world but 
+I wanna love you the best that, best that I can 
+Oh, The best that I can
+_x000D_
+She sits alone
+By a lamp post
+Trying to find a thought that's escaped her mind
+She says Dar's the one
+I love the most
+But Stipe's not far behind
+She never lets me in
+Only tell me where's she's been
+When she's had too much to drink
+I say that I don't care
+I just run my hands through her dark hair
+Then I pray to God you gotta help me fly away and just...
+Let her cry, if the tears fall down like rain
+Let her sing, if it eases all her pain
+Let her go, let her walk right out on me
+And if the sun comes up tomorrow
+Let her be, let her be.
+This morning I woke up alone
+Found a note standin' by the phone
+Saying maybe, maybe I'll be back some day
+I wanted to look for you
+You walked in
+I didn't know just what I should do
+So I sat back down and had a beer and felt sorry for myself saying...
+Let her cry, if the tears fall down like rain
+Let her sing, if it eases all her pain
+Let her go, let her walk right out on me
+And if the sun comes up tomorrow
+Let her be, let her be.
+[Solo]
+Let her cry, if the tears fall down like rain
+Let her sing, if it eases all her pain
+Let her go, let her walk right out on me
+And if the sun comes up tomorrow
+Let her be, oh, oh.
+Last night I tried to leave
+Cried so much I could not believe
+She was the same girl I fell in love with long ago
+She went in the back to get high
+I sat down on my couch and cried
+Yelling oh mama please help me
+Won't you hold my hand and...
+Let her cry, if the tears fall down like rain
+Let her sing, if it eases all her pain
+Let her go, let her walk right out on me
+And if the sun comes up tomorrow
+Let her be, oh, oh.
+Let her cry, if the tears fall down like rain
+Let her sing, if it eases all her pain
+Let her go, let her walk right out on me
+And if the sun comes up tomorrow
+Let her be, oh, let her be.
+_x000D_
+You and me
+We come from different worlds
+You like to laugh at me
+When I look at other girls
+Sometimes you're crazy
+And you wonder why
+I'm such a baby
+'Cause the Dolphins make me cry
+Well, there's nothing I can do
+I've been looking for a girl like you
+You look at me, you got nothing left to say
+I'm gonna pout at you until I get my way
+I won't dance, you won't sing
+I just wanna love you, but you wanna wear my ring
+Well, there's nothing I can do
+I only wanna be with you
+You can call me your fool
+I only wanna be with you
+Put on a little Dylan
+Sitting on a fence
+I say, "That line is great."
+You ask me what it meant by
+"Said I shot a man named Gray
+Took his wife to Italy
+She inherited a million bucks
+And when she died it came to me
+I can't help it if I'm lucky"
+I only wanna be with you
+Ain't Bobby so cool?
+I only wanna be with you
+Yeah, I'm tangled up in blue
+I only wanna be with you
+You can call me your fool
+Only wanna be with you
+Sometimes I wonder if it will ever end
+You get so mad at me when I go out with my friends
+Sometimes you're crazy
+And you wonder why
+I'm such a baby, yeah
+The Dolphins make me cry
+Well, there's nothing I can do
+Only wanna be with you
+You can call me your fool
+I only wanna be with you
+Yeah, I'm tangled up in blue
+I only wanna be with you
+I only wanna be with you
+I only wanna be with you
+I only wanna be with you
+_x000D_
+Don't look a gift horse in the mouth 
+Come on try and tell me what you're talkin about 
+Those things you're dealing with, you're living a lie 
+Every time I see you it makes me wanna cry 
+Sometimes we'd laugh and talk, seems like yesterday 
+Then you let the white horse come and take you away 
+They came to get you, it was cold and black 
+The wheels were in motion, there was no turning back 
+[Chorus:]
+Running from and angel, runnin to the devil 
+I looked up to you a long time ago 
+But there's something I want you to know 
+Your lying and cheating really tore us apart 
+Please don't come home if you're gonna break my momma's heart 
+[Chorus]
+[Ad lib (over solo section)]
+[Chorus]
+[Ad lib (over outro)]
+_x000D_
+Mama please don't go 
+Won't you stay here for one more day 
+I've been your boy for so long now 
+There's so much I still have to say 
+Sky rips open, and I hold my heart in my hand 
+Like a soldier on his very last day 
+Cried myself to sleep that night, and I listened 
+As I heard the angels sing 
+[Chorus:]
+Sha la la la Sha la la la, I'm going home. 
+Sha la la la Sha la la la, I'm going home. 
+Something inside makes me scream 
+How could God take you from a little boy 
+He'll be alright, he's by my side 
+He's no little boy, he's my pride and joy 
+[Repeat chorus]
+Summer on the radio and the phone rings 
+And it was Jeanette 
+She said boy we had to let her go 
+I begged her no, no not yet 
+You left six of us to fend for ourselves 
+I guess it's part of someone's master plan 
+I see you laughing, you're my best friend 
+You're the light of the lamb, and I cried 
+as the angels sing 
+[Repeat chorus twice]
+_x000D_
+Trouble with the world is we're too busy to think about it, all right 
+Why is there a rebel flag hanging from the state house walls? 
+Tired of hearin' this shit about heritage not hate 
+Time to make the world a better place 
+Why must we hate one another? 
+Well no matter what we gotta live together 
+Just that you don't look like me, tell me what do you see 
+When we pass on the street what do you wanna see 
+P.E.'s coming is all I gotta say 
+Wanna turn and run away 
+They're just telling you how they see it 
+Right or wrong they don't care, you wish that they would quit 
+[chorus:]
+Drowning in a sea of tears 
+Hatred trying to hide your fears 
+Living only for yourself 
+Hating everybody else 
+Cause they don't look like you 
+Nanci singing it's a hard life wherever you go 
+About some fat racist living in Chicago 
+Trying to teach his kids to hate everyone 
+Well tell me why is that something you wanna teach your son? 
+Why must we hate one another? 
+When the people in the church, they tell me you're my brother 
+You don't walk like me, ... you don't talk like me, saying 
+Go back to Africa, I just don't understand 
+[chorus]
+I'm trying to be someone that he could look up to, but 
+When I walk down the street, tell me what do you see 
+I'm a man, I'm a man, I'm a man 
+No I'm not like you 
+Why do you hate me so 
+I don't know, I don't know, I don't know 
+Hating everybody else cause they don't look like you
+_x000D_
+Time, why you punish me?
+Like a wave crashing into the shore
+You wash away my dreams
+Time, why you walk away?
+Like a friend with somewhere to go
+You left me crying
+Can you teach me about tomorrow
+And all the pain and sorrow
+Running free?
+'Cause tomorrow's just another day
+And I don't believe in time
+Time, I don't understand
+Children killing in the street
+Dying for the color of a rag
+Time, take their red and blue
+Wash them in the ocean, make them clean
+Maybe their mothers won't cry tonight
+Can you teach me about tomorrow
+And all the pain and sorrow
+Running free?
+But tomorrow's just another day
+And I don't believe in
+Time is wasting
+Time is walking
+You ain't no friend of mine
+I don't know where I'm goin'
+I think I'm out of my mind
+Thinking about time
+If I die tomorrow, yeah
+Just lay me down to sleep
+Time is wasting
+Time is walking
+You ain't no friend of mine
+I don't know where I'm goin'
+I think I'm out of my mind
+Thinking about time
+Time, you left me standing there
+Like a tree growing all alone
+The wind just stripped me bare, stripped me bare
+Time, the past has come and gone
+The future's far away
+Now only lasts for one second, one second
+Can you teach me about tomorrow
+And all the pain and sorrow
+Running free?
+'Cause tomorrow's just another day
+And I don't believe in time
+Time, you ain't no friend of mine
+I don't know where I'm goin'
+I think I'm outta my mind
+Walkin', wastin' you ain't no friend of mine
+I don't know where I'm goin' oh no, no, no
+Time without courage
+And power without faith
+Is just wasted, wasted, wasted time
+Time, why you punish me?
+_x000D_
+I saw her standing there 
+Tears upon her cheek told me something was wrong 
+I asked her what it was 
+She looked away and said my daddy's home. 
+I knew what that meant 
+It meant that I could never see her again 
+I had seen this once before 
+I didn't wanna deal with it anymore 
+Look away she said, as she turned to me 
+And when I tried to hold her, I couldn't let her be 
+Let her be, Let her be 
+I said why, why do you make me cry 
+She said I love you so, Look away I don't wanna know 
+I saw her standing there 
+Tears upon her cheek told me something's wrong 
+I said what baby 
+she looked away and said my daddy's home 
+Look away she said, and she turned to me 
+but darling, oh I loved her, couldn't let her be 
+Let her be, Let her be 
+Look away, she said I love you so, Look Away.
+_x000D_
+Alone as I sit and watch the trees 
+Won't you tell me if I scream will they bend down and listen to me 
+And it makes me wonder if I know the words will you come 
+Or will you laugh at me 
+Or will I run 
+Little boy says to me, 
+"Where you goin' now son" 
+I said, "I don't know where I'm goin' boy 
+I only know where I'm from" 
+And it makes me wonder 
+If the stars shine when my eyes close 
+Or does my brothers heart cry 
+I don't know 
+I'm a stranger in my home 
+Now that everybody's gone 
+Someone please talk to me 
+Cause I feel you cry 
+And you're sitting with him 
+And I know I'll never see you again 
+Lying down in Charleston under the Carolina sky 
+You see I'm tired of feeling this pain 
+I'm tired of living my own little lie 
+And it makes me wonder 
+When I see you in my dreams 
+Does it mean anything 
+Are you trying to talk to me 
+I'm a stranger in my home 
+Tell me are you feeling alone 
+Someone tell me what to do 
+'Cause I'm feeling strong 
+And I wonder how you feel 
+Do you realize my pain is for real 
+I see you in my dreams 
+And I wonder if you're looking down at me 
+And smiling right now 
+I wanna know if it's true 
+When he looks at me 
+Won't you tell me 
+Does he realize he came down here 
+And he took you too soon 
+And now my days are short an my nights are long 
+I lay down with memories of you keep that keep me going on, going on 
+It makes me wonder as I sit and stare 
+Will I see your face again 
+Tell me, do you care 
+I'm a stranger in my home 
+Living life on my own 
+Right now I just can't see 
+'Cause i'm feeling weak 
+And my sould begins to bleed 
+And no one is listening to me, not even the trees
+_x000D_
+Tomorrow used to be a day away 
+Now love is gone and you're into someone far away. 
+I never thought the day would come 
+When I would see his hand, not mine, 
+holding onto yours because I could not find the time. 
+Now I can't deny 
+nothing lasts forever 
+I don't want to leave 
+and I see the tear drops in your eyes 
+I don't want to live to see the day we say goodbye 
+Now there comes another part of life that I call alone 
+sitting at a bar with Chris 
+and I can't leave 'cause my house ain't no home, no. 
+I just wanna touch you girl 
+I wanna feel you close to me 
+Without your love I would give up now 
+and walk away so easily. 
+So maybe while you're young 
+We'll figure out together 
+that even with the pain, there's a remedy 
+and we'll be all right 
+I don't want to live to see the day we say goodbye. 
+When I first met you I couldn't love anyone 
+but you stole my dreams and you made me see 
+that I can walk under the sun 
+and I can still be me 
+and now I can't deny nothing lasts forever. 
+But I don't want to leave and see the teardrops in your eyes 
+So baby while we're young let's figure out together 
+that even with the pain there's a remedy 
+and we'll be all right. 
+I don't want to live to see the day we say goodbye, 
+we say goodbye, oh goodbye, goodbye.
  </t>
   </si>
   <si>
-    <t>https://www.azlyrics.com/j/jackson.html</t>
-  </si>
-  <si>
-    <t>https://www.azlyrics.com/l/ledzeppelin.html</t>
-  </si>
-  <si>
-    <t>https://www.azlyrics.com/p/pinkfloyd.html</t>
-  </si>
-  <si>
-    <t>https://www.azlyrics.com/b/brooks.html</t>
-  </si>
-  <si>
-    <t>https://www.azlyrics.com/t/twain.html</t>
-  </si>
-  <si>
-    <t>https://www.azlyrics.com/b/beatles.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-Hey, hey mama, said the way you move
-Gonna make you sweat, gonna make you groove
-Uh uh child, way you shake that thing
-Gonna make you burn, gonna make you sting
-Hey, hey, baby, when you walk that way
-Watch your honey drip, can't keep away
-Ah, yeah, ah, yeah, ah, ah, ah
-Ah, yeah, ah, yeah, ah, ah, ah
-I gotta roll, can't stand still
-Got a flamin' heart, can't get my fill
-Eyes that shine, burnin' red
-Dreams of you all through my head
-Ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah
-Hey hey, baby, oh, baby, pretty baby
-Darlin' can't you do me now?
-Hey, baby, oh, baby, pretty baby
-Move me while you do me now
-Didn't take too long 'fore I found out
-What people mean by down and out
-Spent my money, took my car
-Started tellin' her friends she gonna be a star
-I don't know, but I been told
-A big legged woman ain't got no soul
-Oh, yeah, oh, yeah, ah, ah, ah
-Oh, yeah, oh, yeah, ah, ah, yeah
-All I ask for, all I pray
-Steady-loaded woman gonna come my way
-Need a woman, gonna hold my hand
-Will tell me no lies, make me a happy man
-Ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah, ah
-La-da ah e ah
-Yes I will. And, yes, I really, really do, baby, baby, baby
-I can really do you, huh? Ooh, wow, you do it, baby
-Push it, baby, push it, baby, push it, baby, push it, baby
-Push it, baby, push it, babe, babe
-Ooh, ooh, aah ooh. Ooh. I'd really like to do it now
-I'd really like to do it now
-It's been a long time since I rock-and-rolled.
-It's been a long time since I did the Stroll.
-Ooh, let me get it back, let me get it back, let me get it back, baby, where I come from.
-It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
-Yes, it has.
-It's been a long time since the book of love.
-I can't count the tears of a life with no love.
-Carry me back, carry me back, carry me back, baby, where I come from.
-It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
-Seems so long since we walked in the moonlight,
-Making vows that just can't work right.
-Open your arms, open your arms, open your arms, baby, let my love come running in.
-It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
-It's been a long time, been a long time, been a long lonely, lonely, lonely, lonely, lonely time.
-The Queen of Light took her bow,
-And then she turned to go,
-The Prince of Peace embraced the gloom,
-And walked the night alone.
-Oh, dance in the dark of night,
-Sing to the morning light.
-The dark Lord rides in force tonight,
-And time will tell us all.
-Oh, throw down your plow and hoe,
-Rest not to lock your homes.
-Side by side we wait the might
-Of the darkest of them all.
-I hear the horses' thunder down in the valley below,
-I'm waiting for the angels of Avalon, waiting for the eastern glow.
-The apples of the valley hold the seeds of happiness,
-The ground is rich from tender care,
-Repay, do not forget, no, no.
-Dance in the dark of night,
-Sing to the morning light.
-The apples turn to brown and black,
-The tyrant's face is red.
-Oh war is the common cry,
-Pick up your swords and fly.
-The sky is filled with good and bad
-That mortals never know.
-Oh, well, the night is long, the beads of time pass slow,
-Tired eyes on the sunrise, waiting for the eastern glow.
-The pain of war cannot exceed the woe of aftermath,
-The drums will shake the castle wall,
-The Ringwraiths ride in black, ride on.
-Sing as you raise your bow,
-(Ride on)
-Shoot straighter than before.
-No comfort has the fire at night
-That lights the face so cold.
-Oh dance in the dark of night,
-Sing to the morning light.
-The magic runes are writ in gold to bring the balance back.
-Bring it back.
-At last the sun is shining,
-The clouds of blue roll by,
-With flames from the dragon of darkness,
-The sunlight blinds his eyes.
-Bring it back, bring it back, bring it back, bring it back,
-Bring it back, bring it back, bring it back, bring it back
-Oh now oh now oh now oh, oh now oh now oh now
-Bring it back, bring it back, bring it back, bring it back
-Oh now oh now oh now oh, oh now oh now oh now
-Bring it bring it bring it bring it bring it
-There's a lady who's sure all that glitters is gold
-And she's buying a stairway to heaven.
-When she gets there she knows, if the stores are all closed
-With a word she can get what she came for.
-Ooh, ooh, and she's buying a stairway to heaven.
-There's a sign on the wall but she wants to be sure
-'Cause you know sometimes words have two meanings.
-In a tree by the brook, there's a songbird who sings,
-Sometimes all of our thoughts are misgiven.
-Ooh, it makes me wonder,
-Ooh, it makes me wonder.
-There's a feeling I get when I look to the west,
-And my spirit is crying for leaving.
-In my thoughts I have seen rings of smoke through the trees,
-And the voices of those who stand looking.
-Ooh, it makes me wonder,
-Ooh, it really makes me wonder.
-And it's whispered that soon, if we all call the tune,
-Then the piper will lead us to reason.
-And a new day will dawn for those who stand long,
-And the forests will echo with laughter.
-If there's a bustle in your hedgerow, don't be alarmed now,
-It's just a spring clean for the May queen.
-Yes, there are two paths you can go by, but in the long run
-There's still time to change the road you're on.
-And it makes me wonder.
-Your head is humming and it won't go, in case you don't know,
-The piper's calling you to join him,
-Dear lady, can you hear the wind blow, and did you know
-Your stairway lies on the whispering wind?
-And as we wind on down the road
-Our shadows taller than our soul.
-There walks a lady we all know
-Who shines white light and wants to show
-How everything still turns to gold.
-And if you listen very hard
-The tune will come to you at last.
-When all are one and one is all
-To be a rock and not to roll.
-And she's buying a stairway to heaven.
-Walkin' in the park just the other day, Baby, 
-What do you, what do you think I saw? 
-Crowds of people sittin' on the grass with flowers in their hair said, 
-"Hey, Boy, do you wanna score?" 
-And you know how it is; 
-I really don't know what time it was, woh, oh, 
-So I asked them if I could stay awhile. 
-I didn't notice but it had got very dark and I was really, 
-Really out of my mind. 
-Just then a policeman stepped up to me and asked us said, 
-"Please, hey, would we care to all get in line, 
-Get in line." 
-Well you know, They asked us to stay for tea and have some fun, 
-Oh, oh, he said that his friends would all drop by, ooh. 
-Why don't you take a good look at yourself and describe what you see, 
-And Baby, Baby, Baby, do you like it? 
-There you sit, sitting spare like a book on a shelf rustin' 
-Ah, not trying to fight it. 
-You really don't care if they're coming, oh, oh, 
-I know that it's all a state of mind, ooh. 
-If you go down in the streets today, Baby, you better, 
-You better open your eyes. 
-Folk down there really don't care, really don't care, don't care, really don't 
-Which, which way the pressure lies, 
-So I've decided what I'm gonna do now. 
-So I'm packing my bags for the Misty Mountains 
-Where the spirits go now, 
-Over the hills where the spirits fly, ooh. 
-I really don't know.
-One, two, three, four, five, six.
-One, two, three.
-One.
-Oh, baby, it's cryin' time, 
-Oh, baby, I got to fly.
-Got to try to find a way, 
-Got to try to get away,
-'Cause you know I gotta get away from you, babe.
-Oh, baby, the river's red, 
-Oh, baby, in my head.
-There's a funny feelin' goin' on. 
-I don't think I can hold out long.
-And when the owls cry in the night, 
-Oh, baby, baby, when the pines begin to cry,
-Baby, baby, baby, how do you feel? 
-If the rivers run dry, baby, how would you feel?
-Craze, baby, the rainbow's end, 
-Mm, baby, it's just a den
-For those who hide, 
-Who hide their love to depths of life
-And ruin dreams that we all knew so, babe.
-And when the owls cry in the night, 
-Oh, baby, baby, when the pines begin to cry,
-Baby, baby, baby, how do you feel? 
-If the rivers run dry, baby, how do you feel?
-Baby, how do you feel?
-Ooh yeah, brave I endure.
-Ooh yeah, strong shields and lore.
-They can't hold the wrath of those who walk,
-And the boots of those who march,
-Baby, through the roads of time so long ago.
-Spent my days with a woman unkind
-Smoked my stuff and drank all my wine
-Made up my mind to make a new start
-Going to California with an aching in my heart
-Someone told me there's a girl out there
-With love in her eyes and flowers in her hair
-Took my chances on a big jet plane
-Never let them tell you that they're all the same
-The sea was red and the sky was grey
-Wondered how tomorrow could ever follow today
-Mountains and the canyons start to tremble and shake
-The children of the sun begin to awake
-Watch out
-Seems that the wrath
-Of the Gods
-Got a punch on the nose
-And it started to flow
-I think I might be sinking
-Throw me a line
-If I reach it in time
-I'll meet you up there
-Where the path runs straight
-And high
-To find a queen without a king
-They say she plays guitar and cries and sings
-Ride a white mare in the footsteps of dawn
-Tryin' to find a woman who's never, never, never been born
-Standing on a hill in the mountain of dreams
-Telling myself it's not as hard, hard, hard as it seems
-If it keeps on rainin', levee's goin' to break
-If it keeps on rainin', levee's goin' to break
-When the levee breaks I'll have no place to stay
-Mean old levee taught me to weep and moan
-Mean old levee taught me to weep and moan
-It's got what it takes to make a mountain man leave his home
-Oh, well, oh, well, oh, well
-Don't it make you feel bad
-When you're tryin' to find your way home
-You don't know which way to go?
-If you're goin' down south
-Then there's no work to do
-If you re goin' north there's Chicago
-Cryin' won't help you, prayin' won't do you no good
-Now, cryin' won't help you, prayin' won't do you no good
-When the levee breaks, mama, you got to move
-All last night I sat on the levee and moaned
-All last night sat on the levee and moaned
-Thinkin' about my baby and my happy home
-Going, I'm going to Chicago
-Going to Chicago
-Sorry but I can't take you
-Going down... going down now
-Going down... going down now
-Going down
-Going down
-Going down
-Going down
-Going down now
-Going down
-Going down now
-Going down
-Going down now
-Going down
-Going down
- </t>
-  </si>
-  <si>
-    <t>https://www.azlyrics.com/f/fleetwood.html</t>
-  </si>
-  <si>
-    <t>"The Beatles (The White Album)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+_x000D_
 I know there's nothing to say
 Someone has taken my place
 When times go bad
@@ -2551,6 +3081,7 @@
 [Instrumental]
 I'm just second hand news
 I'm just second hand news
+_x000D_
 Now here you go again
 You say you want your freedom
 Well, who am I to keep you down?
@@ -2587,6 +3118,7 @@
 Say women they will come and they will go
 When the rain washes you clean, you'll know, you'll know
 You will know, you'll know
+_x000D_
 She broke down and let me in
 Made me see where I've been
 Been down one time
@@ -2637,6 +3169,7 @@
 Don't you look back
 Don't you look back
 Don't you look back
+_x000D_
 Loving you
 Isn't the right thing to do
 How can I ever change things that I feel?
@@ -2662,6 +3195,7 @@
 You can call it another lonely day
 You can go your own way
 Go your own way
+_x000D_
 For you, there'll be no more crying
 For you, the sun will be shining
 And I feel that when I'm with you
@@ -2682,6 +3216,7 @@
 Like never before
 Like never before
 Like never before
+_x000D_
 Listen to the wind blow
 Watch the sun rise
 Run in the shadows
@@ -2708,6 +3243,7 @@
 [5x]
 Chain, keep us together
 Running in the shadows
+_x000D_
 Sweet wonderful you,
 You make me happy with the things you do.
 Oh, can it be so?
@@ -2732,6 +3268,7 @@
 It's all I wanna do.
 You, you make loving fun.
 It's all I wanna do.
+_x000D_
 I don't wanna know the reasons why
 Our love keeps right on walking on down the line
 I don't wanna stand 'tween you and love, honey
@@ -2767,6 +3304,7 @@
 Our love keeps right on walking on down the line
 I don't wanna stand 'tween you and love, honey, take a little time
 Oh, I don't wanna know
+_x000D_
 Oh Daddy,
 You know you make me cry,
 How can you love me,
@@ -2788,6 +3326,7 @@
 Everything you do is just alright,
 And I can't walk away from you, baby
 If I tried.
+_x000D_
 Rock on, gold dust woman
 Take your silver spoon and dig your grave
 Heartless challenge
@@ -2832,6 +3371,708 @@
   </si>
   <si>
     <t xml:space="preserve">
+_x000D_
+Let's go girls! Come on.
+I'm going out tonight-I'm feelin' alright
+Gonna let it all hang out
+Wanna make some noise-really raise my voice
+Yeah, I wanna scream and shout
+No inhibitions-make no conditions
+Get a little outta line
+I ain't gonna act politically correct
+I only wanna have a good time
+The best thing about being a woman
+Is the prerogative to have a little fun
+Oh, oh, oh, go totally crazy-forget I'm a lady
+Men's shirts-short skirts
+Oh, oh, oh, really go wild-yeah, doin' it in style
+Oh, oh, oh, get in the action-feel the attraction
+Color my hair-do what I dare
+Oh, oh, oh, I wanna be free-yeah, to feel the way I feel
+Man! I feel like a woman!
+The girls need a break-tonight we're gonna take
+The chance to get out on the town
+We don't need romance-we only wanna dance
+We're gonna let our hair hang down
+The best thing about being a woman
+Is the prerogative to have a little fun
+Oh, oh, oh, go totally crazy-forget I'm a lady
+Men's shirts-short skirts
+Oh, oh, oh, really go wild-yeah, doin' it in style
+Oh, oh, oh, get in the action-feel the attraction
+Color my hair-do what I dare
+Oh, oh, oh, I wanna be free-yeah, to feel the way I feel
+Man! I feel like a woman!
+The best thing about being a woman
+Is the prerogative to have a little fun (fun, fun)
+Oh, oh, oh, go totally crazy-forget I'm a lady
+Men's shirts-short skirts
+Oh, oh, oh, really go wild-yeah, doin' it in style
+Oh, oh, oh, get in the action-feel the attraction
+Color my hair-do what I dare
+Oh, oh, oh, I wanna be free-yeah, to feel the way I feel
+Man! I feel like a woman!
+I get totally crazy
+Can you feel it
+Come, come, come on baby
+I feel like a woman
+_x000D_
+I don't need a shrink to tell me what to think_x000D_
+There ain't no missing link in my love life_x000D_
+It's alright, I ain't that uptight_x000D_
+I don't need a psychic 'cause I don't really like it_x000D_
+When someone tries to tell me just what my future holds_x000D_
+I already know _x000D_
+Your love keeps me alive_x000D_
+You're all I need to survive_x000D_
+I got you by my side 
+_x000D_
+So I'm holdin' on-I'm feelin' strong-baby you're the one_x000D_
+For all my life!_x000D_
+Yeah I'm holdin' out-there ain't no doubt-I can't live without_x000D_
+You all my life!_x000D_
+I'm holdin' on to love to save my life 
+_x000D_
+I don't need to get all caught up on the net 'cause I'm already set_x000D_
+Can't you understand-already got my man_x000D_
+No I don't need proof to show me the truth, not even Dr. Ruth_x000D_
+Is gonna tell me how I feel-I know our love is real 
+_x000D_
+Your love keeps me alive_x000D_
+You're all I need to survive_x000D_
+I got you by my side 
+_x000D_
+So I'm holdin' on-I'm feelin' strong-baby you're the one_x000D_
+For all my life!_x000D_
+Yeah I'm holdin' out-there ain't no doubt-I can't live without_x000D_
+You all my life!_x000D_
+I'm holdin' on to love to save my life 
+_x000D_
+(I'm holdin' on to love to save my life) 
+_x000D_
+Your love keeps me alive_x000D_
+You're all I need to survive_x000D_
+I got you by my side 
+_x000D_
+So I'm holdin' on-I'm feelin' strong-baby you're the one_x000D_
+For all my life!_x000D_
+Yeah I'm holdin' out-there ain't no doubt-I can't live without_x000D_
+You all my life!_x000D_
+I'm holdin' on to love to save my life 
+_x000D_
+Save me, save me, save me_x000D_
+Save my life
+_x000D_
+Life was goin' great_x000D_
+Love was gonna have to wait_x000D_
+Was in no hurry-had no worries_x000D_
+Stayin' single was the plan_x000D_
+Didn't need a steady man_x000D_
+I had it covered-'til I discovered _x000D_
+That love gets me every time_x000D_
+My heart changed my mind_x000D_
+I gol' darn gone and done it 
+_x000D_
+Gone and done it (gone and done it)_x000D_
+Guess I fell in love (gone and done it)_x000D_
+Must've been the way he walked (gone and done it)_x000D_
+Or his sweet, sweet talk (gone and done it)_x000D_
+I guess I- - - gol' darn gone and done it 
+_x000D_
+I was quite content_x000D_
+Just a-payin' my own rent_x000D_
+It was my place-I needed my space_x000D_
+I was free to shop around_x000D_
+In no rush to settle down_x000D_
+I had it covered-'til I discovered 
+_x000D_
+That love gets me every time_x000D_
+My heart changed my mind_x000D_
+I gol' darn gone and done it 
+_x000D_
+Gone and done it (gone and done it)_x000D_
+Guess I fell in love (gone and done it)_x000D_
+Must've been the way he walked (gone and done it)_x000D_
+Or his sweet, sweet talk (gone and done it)_x000D_
+I guess I- - - gol' darn gone and done it 
+_x000D_
+Love gets me every time_x000D_
+My heart changed my mind_x000D_
+I gol' darn gone and done it 
+_x000D_
+Gone and done it (gone and done it)_x000D_
+Guess I fell in love (gone and done it)_x000D_
+Must've been the way he walked (gone and done it)_x000D_
+Or his sweet, sweet talk (gone and done it)_x000D_
+It's in the way he calls my name (gone and done it)_x000D_
+I know I'll never be the same (gone and done it) 
+_x000D_
+Love gets me every time_x000D_
+My heart changed my mind_x000D_
+I gol' darn gone and done it 
+_x000D_
+Thought I had it covered_x000D_
+Life was going great_x000D_
+Well I gol' darn gone and done it
+_x000D_
+You're so complicated-you hang over my shoulder_x000D_
+When I read my mail_x000D_
+I don't appreciate it_x000D_
+When I talk to other guys_x000D_
+You think they're on my tail _x000D_
+I get so aggravated when I get off the phone_x000D_
+And I get the third degree_x000D_
+I'm really feelin' frustrated_x000D_
+Why don't you take a pill and put a little trust in me_x000D_
+And you'll see 
+_x000D_
+Don't freak out until you know the facts_x000D_
+Relax 
+_x000D_
+Don't be stupid-you know I love you_x000D_
+Don't be ridiculous-you know I need you_x000D_
+Don't be absurd-you know I want you_x000D_
+Don't be impossible 
+_x000D_
+I'm mad about you (I'm mad about you)_x000D_
+Can't live without you (can't live without you)_x000D_
+I'm crazy 'bout you (I'm crazy 'bout you)_x000D_
+So don't be stupid-you know I love you 
+_x000D_
+Stop overreacting_x000D_
+You even get suspicious when I paint my nails_x000D_
+It's definitely distracting_x000D_
+The way you dramatize every little small detail 
+_x000D_
+Don't freak out until you know the facts_x000D_
+Relax-Max 
+_x000D_
+Don't be stupid-you know I love you_x000D_
+Don't be ridiculous-you know I need you_x000D_
+Don't be absurd-you know I want you_x000D_
+Don't be impossible_x000D_
+I'm mad about you (I'm mad about you)_x000D_
+Can't live without you (can't live without you)_x000D_
+I'm crazy 'bout you (I'm crazy 'bout you)_x000D_
+Don't be stupid-you know I love you 
+_x000D_
+Don't be stupid-you're my baby 
+_x000D_
+I'm mad about you (I'm mad about you)_x000D_
+Can't live without you (can't live without you)_x000D_
+I'm crazy 'bout you (I'm crazy 'bout you)_x000D_
+Don't be stupid-you know I love you_x000D_
+Don't be ridiculous-you know I need you_x000D_
+Don't be absurd-you know I want you_x000D_
+Don't be impossible
+_x000D_
+I do swear that I'll always be there
+I'd give anything and everything and I will always care
+Through weakness and strength, happiness and sorrow, for better for worse, I will love you with every beat of my heart
+From this moment life has begun
+From this moment you are the one
+Right beside you is where I belong
+From this moment on
+From this moment I have been blessed
+I live only for your happiness
+And for your love I'd give my last breath
+From this moment on
+I give my hand to you with all my heart
+I can't wait to live my life with you
+I can't wait to start
+You and I will never be apart
+My dreams came true because of you
+From this moment as long as I live
+I will love you, I promise you this
+There is nothing I wouldn't give
+From this moment on
+You're the reason I believe in love
+And you're the answer to my prayers from up above
+All we need is just the two of us
+My dreams came true because of you
+From this moment as long as I live
+I will love you, I promise you this
+There is nothing I wouldn't give
+From this moment
+I will love you as long as I live
+From this moment on
+_x000D_
+Get a life-get a grip_x000D_
+Get away somewhere, take a trip_x000D_
+Take a break-take control_x000D_
+Take advice from someone you know _x000D_
+Come on over-come on in_x000D_
+Pull up a seat-take a load off your feet_x000D_
+Come on over-come on in_x000D_
+You can unwind-take a load off your mind 
+_x000D_
+Make a wish-make a move_x000D_
+Make up your mind-you can choose_x000D_
+When you're up-when you're down_x000D_
+When you need a laugh come around 
+_x000D_
+Come on over-come on in_x000D_
+Pull up a seat-take a load off your feet_x000D_
+Come on over-come on in_x000D_
+You can unwind-take a load off your mind 
+_x000D_
+Oh, oh, oh... 
+_x000D_
+Be a winner-be a star_x000D_
+Be happy to be who you are_x000D_
+Gotta be yourself-gotta make a plan_x000D_
+Gotta go for it while you can 
+_x000D_
+Come on over-come on in_x000D_
+Pull up a seat-take a load off your feet_x000D_
+Come on over-come on in_x000D_
+You can unwind-take a load off your mind 
+_x000D_
+Get a life-get a grip_x000D_
+Get away somewhere, take a trip_x000D_
+Take a break-take control_x000D_
+Take advice from someone you know 
+_x000D_
+Come on over-come on in_x000D_
+Pull up a seat-take a load off your feet_x000D_
+Come on over-come on in_x000D_
+You can unwind-take a load off your mind 
+_x000D_
+Oh, oh, oh...
+_x000D_
+If elephants could fly I'd be a little more optimistic_x000D_
+But I don't see that happening anytime soon_x000D_
+I don't mean to sound so pessimistic_x000D_
+But I don't think that cow really jumped over the moon _x000D_
+When will I wake up?_x000D_
+Why did we break up?_x000D_
+When will we make up? 
+_x000D_
+When money grows on trees_x000D_
+People live in peace_x000D_
+Everyone agrees_x000D_
+When happiness is free_x000D_
+Love can guarantee_x000D_
+You'll come back to me-that's when 
+_x000D_
+I'd love to wake up smiling-full of the joys of spring_x000D_
+And hear on CNN that Elvis lives again_x000D_
+And that John's back with the Beatles and they're going out on tour_x000D_
+I'll be the first in line for tickets-gotta see that show for sure 
+_x000D_
+When will I wake up?_x000D_
+Why did we break up?_x000D_
+When will we make up? 
+_x000D_
+When money grows on trees_x000D_
+People live in peace_x000D_
+Everyone agrees_x000D_
+When happiness is free_x000D_
+Love can guarantee_x000D_
+You'll come back to me-that's when 
+_x000D_
+When will I wake up?_x000D_
+Why did we break up?_x000D_
+When will we make up? 
+_x000D_
+When money grows on trees_x000D_
+People live in peace_x000D_
+Everyone agrees_x000D_
+When happiness is free_x000D_
+Love can guarantee_x000D_
+You'll come back to me-that's when
+_x000D_
+Deep in Denialville_x000D_
+Tryin' a' fight the way I feel_x000D_
+I go jello when you smile_x000D_
+I start blushin'-my head rushin' _x000D_
+If you stand too close to me_x000D_
+I might melt down from the heat_x000D_
+If ya' look my way one more time_x000D_
+I'm gonna go out of my mind_x000D_
+Whatever you do... 
+_x000D_
+Don't even think about it!_x000D_
+Don't go and get me started!_x000D_
+Don't you dare drive me crazy!_x000D_
+Don't do that to me baby! 
+_x000D_
+You stop me in my tracks_x000D_
+My heart pumpin' to the max_x000D_
+I'm such a sucker for your eyes_x000D_
+They permanently paralyze_x000D_
+Whatever you do... 
+_x000D_
+Don't even think about it!_x000D_
+Don't go and get me started!_x000D_
+Don't you dare drive me crazy!_x000D_
+Don't do that to me baby! 
+_x000D_
+(Whatever you do, don't do that to me)_x000D_
+You got my heart under attack_x000D_
+You give me shivers down my back_x000D_
+D'ya have to walk the way you do?_x000D_
+I get weak just watchin' you_x000D_
+Whatever you do... 
+_x000D_
+Don't even think about it!_x000D_
+Don't go and get me started!_x000D_
+Don't you dare drive me crazy!_x000D_
+Don't do that to me baby! 
+_x000D_
+Don't do that-don't do that
+_x000D_
+Let me let you in on a secret_x000D_
+How to treat a woman right_x000D_
+If you're lookin' for a place in her heart_x000D_
+It ain't gonna happen overnight _x000D_
+First you gotta learn to listen_x000D_
+To understand her deepest thoughts_x000D_
+She needs to know you can be friends_x000D_
+Before she'll give you all she's got 
+_x000D_
+If you start from the heart_x000D_
+You'll see love is gonna play it's part 
+_x000D_
+If you wanna get to know her_x000D_
+Really get inside her mind_x000D_
+If you wanna move in closer_x000D_
+Take it slow, yeah take your time_x000D_
+You must start from the heart and then..._x000D_
+If you wanna touch her_x000D_
+Really wanna touch her_x000D_
+if you wanna touch her, ask! 
+_x000D_
+A little physical attraction_x000D_
+Romantic, old-fashioned charm_x000D_
+And a lot of love and tenderness_x000D_
+Is gonna get you into her arms 
+_x000D_
+If you start from the heart_x000D_
+You'll see love is gonna play it's part 
+_x000D_
+If you wanna get to know her_x000D_
+Really get inside her mind_x000D_
+If you wanna move in closer_x000D_
+Take it slow, yeah take your time_x000D_
+You must start from the heart and then..._x000D_
+If you wanna touch her_x000D_
+Really wanna touch her_x000D_
+if you wanna touch her, ask! 
+_x000D_
+Let me let you in on a secret_x000D_
+How to treat a woman right_x000D_
+If you're lookin' for a place in her heart_x000D_
+It ain't gonna happen overnight 
+_x000D_
+If you wanna get to know her_x000D_
+Really get inside her mind_x000D_
+If you wanna move in closer_x000D_
+Take it slow, yeah take your time_x000D_
+You must start from the heart and then..._x000D_
+If you wanna touch her_x000D_
+Really wanna touch her_x000D_
+if you wanna touch her, ask!
+_x000D_
+(When I first saw you, I saw love
+And the first time you touched me, I felt love
+And after all this time, you're still the one I love)
+Looks like we made it
+Look how far we've come, my baby
+We mighta took the long way
+We knew we'd get there someday
+They said, "I bet they'll never make it"
+But just look at us holding on
+We're still together, still going strong
+(You're still the one)
+You're still the one I run to
+The one that I belong to
+You're still the one I want for life
+(You're still the one)
+You're still the one that I love
+The only one I dream of
+You're still the one I kiss good night
+Ain't nothing better
+We beat the odds together
+I'm glad we didn't listen
+Look at what we would be missing
+They said, "I bet they'll never make it"
+But just look at us holding on
+We're still together still going strong
+(You're still the one)
+You're still the one I run to
+The one that I belong to
+You're still the one I want for life
+(You're still the one)
+You're still the one that I love
+The only one I dream of
+You're still the one I kiss good night
+You're still the one
+(You're still the one)
+You're still the one I run to
+The one that I belong to
+You're still the one I want for life
+(You're still the one)
+You're still the one that I love
+The only one I dream of
+You're still the one I kiss good night
+I'm so glad we made it
+Look how far we've come, my baby
+_x000D_
+The car won't start-it's falling apart_x000D_
+I was late for work and the boss got smart_x000D_
+My pantyline shows-got a run in my hose_x000D_
+My hair went flat-man, I hate that _x000D_
+Just when I thought things couldn't get worse_x000D_
+I realized I forgot my purse_x000D_
+With all this stress-I must confess_x000D_
+This could be worse than PMS 
+_x000D_
+This job ain't worth the pay _x000D_
+Can't wait 'til the end of the day_x000D_
+Honey, I'm on my way_x000D_
+Hey! Hey! Hey! Hey! 
+_x000D_
+Honey, I'm home and I had a hard day_x000D_
+Pour me a cold one and oh, by the way_x000D_
+Rub my feet, gimme something to eat_x000D_
+Fix me up my favorite treat_x000D_
+Honey, I'm back, my head's killing me_x000D_
+I need to relax and watch TV_x000D_
+Get off the phone-give the dog a bone_x000D_
+Hey! Hey! Honey, I'm home! 
+_x000D_
+I broke a nail opening the mail_x000D_
+I cursed out loud 'cause it hurt like hell_x000D_
+This job's a pain-it's so mundane_x000D_
+It sure don't stimulate my brain 
+_x000D_
+This job ain't worth the pay _x000D_
+Can't wait 'til the end of the day_x000D_
+Honey, I'm on my way_x000D_
+Hey! Hey! Hey! Hey! 
+_x000D_
+Honey, I'm home and I had a hard day_x000D_
+Pour me a cold one and oh, by the way_x000D_
+Rub my feet, gimme something to eat_x000D_
+Fix me up my favorite treat_x000D_
+Honey, I'm back, my head's killing me_x000D_
+I need to relax and watch TV_x000D_
+Get off the phone-give the dog a bone_x000D_
+Hey! Hey! Honey, I'm home! 
+_x000D_
+Oh, rub my neck will you 
+_x000D_
+Honey, I'm home and I had a hard day_x000D_
+Pour me a cold one and oh, by the way_x000D_
+Rub my feet, gimme something to eat_x000D_
+Fix me up my favorite treat_x000D_
+Honey, I'm back, my head's killing me_x000D_
+I need to relax and watch TV_x000D_
+Get off the phone-give the dog a bone_x000D_
+Hey! Hey! Honey, I'm home! 
+_x000D_
+I'm home, that feels much better
+_x000D_
+I've known a few guys who thought they were pretty smart
+But you've got being right down to an art
+You think you're a genius, you drive me up the wall
+You're a regular original, a know-it-all
+Oh-oo-oh, you think you're special
+Oh-oo-oh, you think you're something else
+OK, so you're a rocket scientist
+That don't impress me much
+So you got the brain but have you got the touch?
+Now don't get me wrong, yeah, I think you're alright
+But that won't keep me warm in the middle of the night
+That don't impress me much
+I never knew a guy who carried a mirror in his pocket
+And a comb up his sleeve just in case
+And all that extra-hold gel in your hair oughtta lock it
+'Cause Heaven forbid it should fall outta place
+Oh-oo-oh, you think you're special
+Oh-oo-oh, you think you're something else
+OK, so you're Brad Pitt
+That don't impress me much
+So you got the looks but have you got the touch?
+Now don't get me wrong, yeah, I think you're alright
+But that won't keep me warm in the middle of the night
+That don't impress me much
+You're one of those guys who likes to shine his machine
+You make me take off my shoes before you let me get in
+I can't believe you kiss your car good night
+Now, c'mon, baby, tell me? You must be jokin', right?
+Oh-oo-oh, you think you're special
+Oh-oo-oh, you think you're something else
+OK, so you've got a car
+That don't impress me much
+So you got the moves but have you got the touch?
+Now don't get me wrong, yeah, I think you're alright
+But that won't keep me warm in the middle of the night
+That don't impress me much
+You think you're cool but have you got the touch?
+Now don't get me wrong, yeah, I think you're alright
+But that won't keep me warm on the long, cold, lonely night
+That don't impress me much
+OK. So, what do you think? You're Elvis or something?
+That don't impress me much!
+That don't impress me much!
+_x000D_
+Black eyes, I don't need 'em_x000D_
+Blue tears, gimme freedom _x000D_
+Positively never goin' back_x000D_
+I won't live where things are so out of whack_x000D_
+No more rollin' with the punches_x000D_
+No more usin' or abusin' 
+_x000D_
+I'd rather die standing_x000D_
+Than live on my knees_x000D_
+Begging please-no more 
+_x000D_
+Black eyes-I don't need 'em_x000D_
+Blue tears-gimme freedom_x000D_
+Black eyes-all behind me_x000D_
+Blue tears'll never find me now 
+_x000D_
+Definitley found my self esteem_x000D_
+Finally-I'm forever free to dream_x000D_
+No more cryin' in the corner_x000D_
+No excuses-no more bruises 
+_x000D_
+I'd rather die standing_x000D_
+Than live on my knees_x000D_
+Begging please-no more 
+_x000D_
+Black eyes-I don't need 'em_x000D_
+Blue tears-gimme freedom_x000D_
+Black eyes-all behind me_x000D_
+Blue tears'll never find me now 
+_x000D_
+I'd rather die standing_x000D_
+Than live on my knees, begging please... 
+_x000D_
+Black eyes-I don't need 'em_x000D_
+Blue tears-gimme freedom_x000D_
+Black eyes-all behind me_x000D_
+Blue tears'll never find me now 
+_x000D_
+It's all behind me, they'll never find me now 
+_x000D_
+Find your self-esteem and be forever free to dream
+_x000D_
+Together-midnight in summer_x000D_
+The air's so much warmer_x000D_
+Falling in love under starlight_x000D_
+Holding on so tight-together _x000D_
+I won't leave you lonely tonight_x000D_
+I want you to hold me all night_x000D_
+It's gonna be alright_x000D_
+I won't leave you lonely tonight 
+_x000D_
+Imagine-the air filled with jasmine_x000D_
+The breeze blows with passion_x000D_
+You and me dance with desire_x000D_
+The moon is on fire-imagine 
+_x000D_
+I won't leave you lonely tonight_x000D_
+I want you to hold me all night_x000D_
+It's gonna be alright_x000D_
+I won't leave you lonely tonight 
+_x000D_
+Je t'aime beaucoup mon amour_x000D_
+You are the one I adore 
+_x000D_
+I won't leave you lonely tonight_x000D_
+I want you to hold me all night_x000D_
+It's gonna be alright_x000D_
+No you won't be lonely tonight 
+_x000D_
+Na-na-na..._x000D_
+Te amo mucho mi amor_x000D_
+You are the one I adore_x000D_
+Te amo
+_x000D_
+I woke up this morning with a buzz rollin' 'round in my brain_x000D_
+I haven't been drinkin' but it feels pretty good just the same_x000D_
+It must be contagious-looks like it's goin' around_x000D_
+It's cool once you catch it-you can't keep your feet on the ground _x000D_
+C'mon, c'mon-let's get something started_x000D_
+C'mon, c'mon-let's start something now 
+_x000D_
+We're gonna rock this country_x000D_
+We're gonna rock this country_x000D_
+Every brown-eyed boy-every blue-eyed girl_x000D_
+Gotta really go psycho-give it a whirl_x000D_
+We're gonna rock this country_x000D_
+Right out of this world_x000D_
+Ah-oo-na-na-na... 
+_x000D_
+From Utah to Texas, Minnesota, Mississippi too_x000D_
+Or Nevada, no matter where you live-this buzz is for you 
+_x000D_
+C'mon, c'mon-let's get something started_x000D_
+C'mon, c'mon-let's start something now 
+_x000D_
+We're gonna rock this country_x000D_
+We're gonna rock this country_x000D_
+Every brown-eyed boy-every blue-eyed girl_x000D_
+Gotta really go psycho-give it a whirl_x000D_
+We're gonna rock this country_x000D_
+Right out of this world_x000D_
+Ah-oo-na-na-na... 
+_x000D_
+Ah-oo-na-na-na... 
+_x000D_
+We're pluggin' in the power_x000D_
+Crankin' up the sound_x000D_
+It's comin' your direction_x000D_
+It's headin' to your town_x000D_
+We're kickin' up dust_x000D_
+Blowin' off steam_x000D_
+Let's get nuts now_x000D_
+Everybody scream 
+_x000D_
+We're gonna rock this country_x000D_
+We're gonna rock this country_x000D_
+Every brown-eyed boy-every blue-eyed girl_x000D_
+Gotta really go psycho-give it a whirl_x000D_
+We're gonna rock this country_x000D_
+Right out of this world_x000D_
+Ah-oo-na-na-na...
+_x000D_
+You've got a way with me
+Somehow you got me to believe
+In everything that I could be
+I've gotta say-you really got a way
+You've got a way it seems
+You gave me faith to find my dreams
+You'll never know just what that means
+Can't you see... You got a way with me
+It's in the way you want me
+It's in the way you hold me
+The way you show me just what love's made of
+It's in the way we make love
+You've got a way with words
+You get me smiling even when it hurts
+There's no way to measure what your love is worth
+I can't believe the way you get through to me
+It's in the way you want me
+It's in the way you hold me
+The way you show me just what love's made of
+It's in the way we make love
+Oh, how I adore you
+Like no one before you
+I love you just the way you are
+It's in the way you want me
+It's in the way you hold me
+The way you show me just what love's made of
+It's in the way we make love
+It's just the way you are
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+_x000D_
 Oh, flew in by Miami Beach B.O.A.C.
 Didn't get to bed last night
 On the way the paper bag was on my knee
@@ -2877,6 +4118,7 @@
 Yes, I'm free!
 Yeah, back in the U.S.S.R.
 Ha ha
+_x000D_
 Dear Prudence, won't you come out to play?
 Dear Prudence, greet the brand new day
 The sun is up, the sky is blue
@@ -2900,6 +4142,7 @@
 The sun is up, the sky is blue
 It's beautiful and so are you
 Dear Prudence, won't you come out to play?
+_x000D_
 I told you about strawberry fields
 You know the place where nothing is real
 Well here's another place you can go
@@ -2925,6 +4168,7 @@
 Fixing a hole in the ocean
 Trying to make a dove-tail joint, yeah
 Looking through a glass onion
+_x000D_
 Desmond has a barrow in the market place
 Molly is the singer in a band
 Desmond says to Molly, "Girl, I like your face"
@@ -2970,6 +4214,7 @@
 And if you want some fun
 Take ob-la-di ob-la-da
 (Thank you, uh, ha ha ha!)
+_x000D_
 Honey Pie
 Honey Pie
 Honey Pie
@@ -2979,6 +4224,7 @@
 Honey Pie
 Honey Pie
 I love you, Honey Pie
+_x000D_
 Hey, Bungalow Bill
 What did you kill, Bungalow Bill?
 Hey, Bungalow Bill
@@ -3021,6 +4267,7 @@
 Hey, Bungalow Bill
 What did you kill, Bungalow Bill?
 Ey op!
+_x000D_
 I look at you all, see the love there that's sleeping
 While my guitar gently weeps
 I look at the floor and I see it needs sweeping
@@ -3049,6 +4296,7 @@
 Oh, oh, oh, oh
 Yeah, yeah, yeah, yeah, yeah
 Yeah, yeah, yeah, yeah, oh, ooh
+_x000D_
 She's not a girl who misses much
 Do do do do do do do do, oh yeah
 She's well acquainted with the touch of the velvet hand
@@ -3078,6 +4326,7 @@
 Happiness is a warm gun, yes it is (Happiness bang, bang, shoot, shoot)
 Happiness is a warm, yes it is, gun (Happiness bang, bang, shoot, shoot)
 Well, don't you know that happiness is a warm gun, mama? (Happiness is a warm gun, yeah)
+_x000D_
 Martha my dear though I spend my days in conversation
 Please
 Remember me Martha my love
@@ -3098,6 +4347,7 @@
 Please
 Be good to me Martha my love
 Don't forget me Martha my dear
+_x000D_
 I'm so tired, I haven't slept a wink
 I'm so tired, my mind is on the blink
 I wonder should I get up and fix myself a drink
@@ -3126,6 +4376,7 @@
 I'd give you everything I've got
 For a little peace of mind
 (Monsieur, Monsieur, Monsieur, how about another one?)
+_x000D_
 Blackbird singing in the dead of night
 Take these broken wings and learn to fly
 All your life
@@ -3144,6 +4395,7 @@
 You were only waiting for this moment to arise
 You were only waiting for this moment to arise
 You were only waiting for this moment to arise
+_x000D_
 Have you seen the little piggies
 Crawling in the dirt?
 And for all the little piggies
@@ -3164,6 +4416,7 @@
 With their piggy wives
 Clutching forks and knives to eat their bacon
 (One more time...)
+_x000D_
 Now somewhere in the Black Mountain Hills of Dakota
 There lived a young boy named Rocky Raccoon
 And one day his woman ran off with another guy
@@ -3211,6 +4464,7 @@
 D'do d'do d'do do do do, come on, Rocky boy
 D'do d'do d'do do do d'do d'do d'do d'do
 The story of Rocky there
+_x000D_
 I listen for your footsteps
 Coming up the drive
 Listen for your footsteps
@@ -3245,6 +4499,7 @@
 You'll never know it hurt me so
 How I hate to see you go
 Don't pass me by, don't make me cry
+_x000D_
 Why don't we do it in the road? Mm
 Why don't we do it in the road? Ah
 Why don't we do it in the road? Mm
@@ -3264,6 +4519,7 @@
 Why don't we do it in the road?
 No one will be watching us
 Why don't we do it in the road?
+_x000D_
 Who knows how long I've loved you
 You know I love you still
 Will I wait a lonely lifetime
@@ -3285,6 +4541,7 @@
 I will
 Mm mm mm mm mm mm mm mm mm
 Da da da da da da da
+_x000D_
 Half of what I say is meaningless
 But I say it just to reach you, Julia
 Julia, Julia, oceanchild, calls me
@@ -3301,6 +4558,7 @@
 So I sing a song of love, Julia
 Hum hum hum hum... calls me
 So I sing a song of love for Julia, Julia, Julia
+_x000D_
 They say it's your birthday
 It's my birthday too, yeah
 They say it's your birthday
@@ -3331,6 +4589,7 @@
 We're gonna have a good time
 I'm glad it's your birthday
 Happy birthday to you
+_x000D_
 Two, three
 Yes I'm lonely wanna die
 Yes I'm lonely wanna die
@@ -3366,6 +4625,7 @@
 Wanna die
 The only reason why
 Wanna die
+_x000D_
 Born a poor young country boy, Mother Nature's son
 All day long I'm sitting singing songs for everyone
 Sit beside a mountain stream, see her waters rise
@@ -3384,6 +4644,7 @@
 Mm mm mm mm mm mm mm
 Mm mm mm mm, wah wah wah
 Wah, Mother Nature's son
+_x000D_
 Come on come on
 Come on come on
 Come on it's such a joy
@@ -3416,6 +4677,7 @@
 Come on, come on, come on...
 Come on, come on, come on, come on, come on
 Come on, come on, come on...
+_x000D_
 Sexy Sadie what have you done
 You made a fool of everyone
 You made a fool of everyone
@@ -3442,6 +4704,7 @@
 Sexy Sadie
 However big you think you are
 Sexy Sadie
+_x000D_
 When I get to the bottom I go back to the top of the slide
 Where I stop and I turn and I go for a ride
 Till I get to the bottom and I see you again
@@ -3477,6 +4740,7 @@
 (My head is spinning, ooh...)
 (Ha ha ha, ha ha ha, alright!)
 (I got blisters on my fingers!)
+_x000D_
 It's been a long long long time
 How could I ever have lost you
 When I loved you
@@ -3492,6 +4756,7 @@
 You know that I need you
 Ooh I love you
 Oh
+_x000D_
 Ah, take 2
 OK!
 You say you want a revolution
@@ -3534,6 +4799,7 @@
 Alright, alright, alright
 Alright
 Alright
+_x000D_
 She was a working girl
 North of England way
 Now she's hit the big time
@@ -3568,6 +4834,7 @@
 Oooooooooooh oh
 Oh oh oh oh oh oh oh
 Honey pie, honey pie
+_x000D_
 Creme tangerine and montelimar
 A ginger sling with a pineapple heart
 A coffee dessert, yes, you know it's good news
@@ -3598,6 +4865,7 @@
 After the Savoy truffle
 Yes you'll have to have them all pulled out
 After the Savoy truffle
+_x000D_
 Cry baby cry
 Make your mother sigh
 She's old enough to know better
@@ -3640,6 +4908,7 @@
 Make your mother sigh
 She's old enough to know better
 So cry baby cry
+_x000D_
 (Bottle of Claret for you if I had realised
 Well, do it next time.
 I forgot about it, George, I'm sorry.
@@ -3745,6 +5014,7 @@
 Block that kick!
 Block that kick!
 Block that kick!
+_x000D_
 Now it's time to say good night
 Good night, sleep tight
 Now the sun turns out his light
@@ -3770,6 +5040,36 @@
 Everybody everywhere
 Good night
  </t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/j/jackson.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/e/eagles.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/l/ledzeppelin.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/p/pinkfloyd.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/a/acdc.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/brooks.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/h/hootie.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/f/fleetwood.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/t/twain.html</t>
+  </si>
+  <si>
+    <t>https://www.azlyrics.com/b/beatles.html</t>
   </si>
 </sst>
 </file>
@@ -3839,13 +5139,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4185,11 +5484,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4215,10 +5512,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -4229,10 +5526,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -4242,11 +5539,11 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -4257,10 +5554,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -4271,10 +5568,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -4285,10 +5582,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -4299,10 +5596,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -4312,11 +5609,11 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -4326,11 +5623,11 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
+      <c r="C10" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -4338,17 +5635,14 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4359,9 +5653,9 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{78488198-F795-4614-8A5D-F66F70A15CD1}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{60019C47-57CD-4FC2-ABBE-09035B581CBF}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex78\Documents\Dexter\Projects\Communication-Style-Analysis-Using-NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F470041C-7ED8-4F9F-8B1A-49D370E139D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56F85A9-3E36-4F4B-A49B-62640251FE92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
